--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_14_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_14_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>302047.5196215843</v>
+        <v>301369.6989413137</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>313298.4515052323</v>
+        <v>313298.4515052316</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058544</v>
+        <v>632041.451805854</v>
       </c>
     </row>
     <row r="9">
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>122.0492982736042</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>122.0492982736042</v>
+        <v>112.8566801745734</v>
       </c>
       <c r="I11" t="n">
-        <v>46.21360886079813</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>32.88999934163198</v>
       </c>
       <c r="T11" t="n">
-        <v>5.520205674735245</v>
+        <v>28.03643329293218</v>
       </c>
       <c r="U11" t="n">
-        <v>55.76720738385719</v>
+        <v>55.76720738385722</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>122.0492982736042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>122.0492982736042</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>51.93274503525222</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.136586121265609</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>117.6682934633407</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>80.16426883755065</v>
+        <v>20.56530653072792</v>
       </c>
       <c r="U12" t="n">
-        <v>42.84521610603968</v>
+        <v>42.84521610603971</v>
       </c>
       <c r="V12" t="n">
-        <v>46.26644524054745</v>
+        <v>46.26644524054748</v>
       </c>
       <c r="W12" t="n">
-        <v>72.3221079021568</v>
+        <v>72.32210790215683</v>
       </c>
       <c r="X12" t="n">
-        <v>22.93043876461581</v>
+        <v>22.93043876461584</v>
       </c>
       <c r="Y12" t="n">
-        <v>29.00181045917083</v>
+        <v>29.00181045917085</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>8.831062059420423</v>
+        <v>8.831062059420468</v>
       </c>
       <c r="S13" t="n">
-        <v>40.97168601871255</v>
+        <v>40.97168601871258</v>
       </c>
       <c r="T13" t="n">
-        <v>29.35851686199497</v>
+        <v>29.358516861995</v>
       </c>
       <c r="U13" t="n">
-        <v>94.27381875013457</v>
+        <v>94.27381875013459</v>
       </c>
       <c r="V13" t="n">
-        <v>50.72653950959511</v>
+        <v>50.72653950959514</v>
       </c>
       <c r="W13" t="n">
-        <v>95.92823141448054</v>
+        <v>95.92823141448056</v>
       </c>
       <c r="X13" t="n">
-        <v>27.53697973338774</v>
+        <v>27.53697973338777</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.75879713931363</v>
+        <v>22.75879713931366</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>79.46458862645832</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>122.0492982736042</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>46.21360886079819</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>32.88999934163198</v>
       </c>
       <c r="T14" t="n">
-        <v>28.0364332929322</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>28.39741371696049</v>
       </c>
       <c r="W14" t="n">
-        <v>122.0492982736042</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="Y14" t="n">
-        <v>122.0492982736042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>122.0492982736042</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1704,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>51.93274503525226</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.136586121265609</v>
+        <v>6.136586121265662</v>
       </c>
       <c r="R15" t="n">
-        <v>4.365968368353522</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="T15" t="n">
-        <v>20.56530653072794</v>
+        <v>80.16426883755071</v>
       </c>
       <c r="U15" t="n">
-        <v>42.84521610603974</v>
+        <v>42.84521610603971</v>
       </c>
       <c r="V15" t="n">
-        <v>46.26644524054751</v>
+        <v>46.26644524054748</v>
       </c>
       <c r="W15" t="n">
-        <v>72.32210790215686</v>
+        <v>72.32210790215683</v>
       </c>
       <c r="X15" t="n">
-        <v>22.93043876461587</v>
+        <v>22.93043876461584</v>
       </c>
       <c r="Y15" t="n">
-        <v>29.00181045917088</v>
+        <v>29.00181045917085</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>8.83106205942048</v>
+        <v>8.831062059420468</v>
       </c>
       <c r="S16" t="n">
-        <v>40.9716860187126</v>
+        <v>40.97168601871258</v>
       </c>
       <c r="T16" t="n">
-        <v>29.35851686199503</v>
+        <v>29.358516861995</v>
       </c>
       <c r="U16" t="n">
-        <v>94.27381875013462</v>
+        <v>94.27381875013459</v>
       </c>
       <c r="V16" t="n">
-        <v>50.72653950959517</v>
+        <v>50.72653950959514</v>
       </c>
       <c r="W16" t="n">
-        <v>95.92823141448059</v>
+        <v>95.92823141448056</v>
       </c>
       <c r="X16" t="n">
-        <v>27.5369797333878</v>
+        <v>27.53697973338777</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.75879713931369</v>
+        <v>22.75879713931366</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>82.31946603086146</v>
       </c>
       <c r="G17" t="n">
-        <v>97.94765892927438</v>
+        <v>97.94765892927444</v>
       </c>
       <c r="H17" t="n">
         <v>26.0317220423338</v>
@@ -1920,19 +1920,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>116.2479950980082</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="E18" t="n">
-        <v>122.0492982736042</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1965,25 +1965,25 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.136586121265662</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>122.0492982736042</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>107.5010219193905</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>122.0492982736042</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>82.31946603086141</v>
       </c>
       <c r="G20" t="n">
-        <v>97.94765892927433</v>
+        <v>97.94765892927438</v>
       </c>
       <c r="H20" t="n">
         <v>26.03172204233374</v>
@@ -2160,10 +2160,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>122.0492982736042</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>122.0492982736042</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2172,16 +2172,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J21" t="n">
-        <v>51.93274503525222</v>
+        <v>51.93274503525226</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,13 +2202,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.136586121265609</v>
+        <v>6.136586121265662</v>
       </c>
       <c r="R21" t="n">
-        <v>122.0492982736042</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>49.43169076287273</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>64.31525006275599</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>82.31946603086141</v>
       </c>
       <c r="G23" t="n">
-        <v>97.94765892927433</v>
+        <v>97.94765892927438</v>
       </c>
       <c r="H23" t="n">
         <v>26.03172204233374</v>
@@ -2397,70 +2397,70 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
         <v>122.0492982736043</v>
       </c>
-      <c r="D24" t="n">
+      <c r="I24" t="n">
+        <v>107.1657389737211</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>6.136586121265662</v>
+      </c>
+      <c r="R24" t="n">
+        <v>116.2479950980081</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
         <v>122.0492982736043</v>
-      </c>
-      <c r="E24" t="n">
-        <v>107.5010219193906</v>
-      </c>
-      <c r="F24" t="n">
-        <v>122.0492982736043</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.1700831296931</v>
+        <v>161.170083129693</v>
       </c>
       <c r="C26" t="n">
-        <v>137.2883401330386</v>
+        <v>137.2883401330385</v>
       </c>
       <c r="D26" t="n">
-        <v>124.855002394087</v>
+        <v>124.8550023940869</v>
       </c>
       <c r="E26" t="n">
-        <v>158.5617548134959</v>
+        <v>158.5617548134958</v>
       </c>
       <c r="F26" t="n">
-        <v>190.2820923918732</v>
+        <v>190.2820923918731</v>
       </c>
       <c r="G26" t="n">
         <v>205.9102852902861</v>
       </c>
       <c r="H26" t="n">
-        <v>133.9943484033456</v>
+        <v>133.9943484033455</v>
       </c>
       <c r="I26" t="n">
-        <v>27.67892728751266</v>
+        <v>27.67892728751261</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.35531776834645</v>
+        <v>14.3553177683464</v>
       </c>
       <c r="T26" t="n">
-        <v>9.501751719646677</v>
+        <v>9.501751719646592</v>
       </c>
       <c r="U26" t="n">
-        <v>37.23252581057173</v>
+        <v>37.23252581057164</v>
       </c>
       <c r="V26" t="n">
-        <v>107.9626263610118</v>
+        <v>107.9626263610117</v>
       </c>
       <c r="W26" t="n">
-        <v>124.9793065776266</v>
+        <v>124.9793065776265</v>
       </c>
       <c r="X26" t="n">
-        <v>146.8655570465659</v>
+        <v>146.8655570465658</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.3684101703096</v>
+        <v>169.3684101703095</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.136586121265609</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.030624957442417</v>
+        <v>2.030624957442334</v>
       </c>
       <c r="U27" t="n">
-        <v>226.6812927311288</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>27.7317636672619</v>
       </c>
       <c r="W27" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>4.395757191330347</v>
+        <v>25.38494998660434</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.46712888588536</v>
+        <v>10.46712888588527</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.43700444542708</v>
+        <v>22.437004445427</v>
       </c>
       <c r="T28" t="n">
-        <v>10.8238352887095</v>
+        <v>10.82383528870942</v>
       </c>
       <c r="U28" t="n">
-        <v>75.7391371768491</v>
+        <v>75.73913717684901</v>
       </c>
       <c r="V28" t="n">
-        <v>32.19185793630965</v>
+        <v>32.19185793630956</v>
       </c>
       <c r="W28" t="n">
-        <v>77.39354984119507</v>
+        <v>77.39354984119498</v>
       </c>
       <c r="X28" t="n">
-        <v>9.002298160102271</v>
+        <v>9.002298160102185</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.224115566028161</v>
+        <v>4.224115566028075</v>
       </c>
     </row>
     <row r="29">
@@ -2795,13 +2795,13 @@
         <v>137.2883401330385</v>
       </c>
       <c r="D29" t="n">
-        <v>124.855002394087</v>
+        <v>124.8550023940869</v>
       </c>
       <c r="E29" t="n">
         <v>158.5617548134958</v>
       </c>
       <c r="F29" t="n">
-        <v>190.2820923918732</v>
+        <v>190.2820923918731</v>
       </c>
       <c r="G29" t="n">
         <v>205.9102852902861</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.3553177683464</v>
+        <v>14.35531776834639</v>
       </c>
       <c r="T29" t="n">
-        <v>9.501751719646627</v>
+        <v>9.501751719646602</v>
       </c>
       <c r="U29" t="n">
-        <v>37.23252581057167</v>
+        <v>37.23252581057164</v>
       </c>
       <c r="V29" t="n">
         <v>107.9626263610117</v>
       </c>
       <c r="W29" t="n">
-        <v>124.9793065776266</v>
+        <v>124.9793065776265</v>
       </c>
       <c r="X29" t="n">
         <v>146.8655570465658</v>
       </c>
       <c r="Y29" t="n">
-        <v>169.3684101703096</v>
+        <v>169.3684101703095</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7388631915159</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>85.16748685189876</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>74.14400670476471</v>
       </c>
       <c r="T30" t="n">
-        <v>2.03062495744236</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U30" t="n">
-        <v>24.31053453275416</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>27.7317636672619</v>
       </c>
       <c r="W30" t="n">
-        <v>53.78742632887128</v>
+        <v>53.78742632887125</v>
       </c>
       <c r="X30" t="n">
-        <v>4.39575719133029</v>
+        <v>4.395757191330262</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.4671288858853</v>
+        <v>10.46712888588527</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.43700444542702</v>
+        <v>22.437004445427</v>
       </c>
       <c r="T31" t="n">
-        <v>10.82383528870945</v>
+        <v>10.82383528870942</v>
       </c>
       <c r="U31" t="n">
-        <v>75.73913717684904</v>
+        <v>75.73913717684901</v>
       </c>
       <c r="V31" t="n">
-        <v>32.19185793630959</v>
+        <v>32.19185793630956</v>
       </c>
       <c r="W31" t="n">
-        <v>77.39354984119501</v>
+        <v>77.39354984119498</v>
       </c>
       <c r="X31" t="n">
-        <v>9.002298160102214</v>
+        <v>9.002298160102185</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.224115566028104</v>
+        <v>4.224115566028075</v>
       </c>
     </row>
     <row r="32">
@@ -3029,25 +3029,25 @@
         <v>161.170083129693</v>
       </c>
       <c r="C32" t="n">
-        <v>137.2883401330385</v>
+        <v>137.2883401330384</v>
       </c>
       <c r="D32" t="n">
-        <v>124.855002394087</v>
+        <v>124.8550023940869</v>
       </c>
       <c r="E32" t="n">
         <v>158.5617548134958</v>
       </c>
       <c r="F32" t="n">
-        <v>190.2820923918732</v>
+        <v>190.2820923918731</v>
       </c>
       <c r="G32" t="n">
         <v>205.9102852902861</v>
       </c>
       <c r="H32" t="n">
-        <v>133.9943484033455</v>
+        <v>133.9943484033454</v>
       </c>
       <c r="I32" t="n">
-        <v>27.67892728751261</v>
+        <v>27.67892728751258</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.3553177683464</v>
+        <v>14.35531776834634</v>
       </c>
       <c r="T32" t="n">
-        <v>9.501751719646627</v>
+        <v>9.501751719646563</v>
       </c>
       <c r="U32" t="n">
-        <v>37.23252581057167</v>
+        <v>37.23252581057162</v>
       </c>
       <c r="V32" t="n">
-        <v>107.9626263610117</v>
+        <v>107.9626263610116</v>
       </c>
       <c r="W32" t="n">
-        <v>124.9793065776266</v>
+        <v>124.9793065776265</v>
       </c>
       <c r="X32" t="n">
         <v>146.8655570465658</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.3684101703096</v>
+        <v>169.3684101703095</v>
       </c>
     </row>
     <row r="33">
@@ -3111,10 +3111,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3159,19 +3159,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.03062495744236</v>
+        <v>2.030624957442305</v>
       </c>
       <c r="U33" t="n">
-        <v>24.31053453275416</v>
+        <v>24.3105345327541</v>
       </c>
       <c r="V33" t="n">
-        <v>27.73176366726193</v>
+        <v>236.2391079869023</v>
       </c>
       <c r="W33" t="n">
-        <v>144.2120409802736</v>
+        <v>53.78742632887122</v>
       </c>
       <c r="X33" t="n">
-        <v>4.39575719133029</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
         <v>223.3842861340256</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.43700444542702</v>
+        <v>22.43700444542697</v>
       </c>
       <c r="T34" t="n">
-        <v>10.82383528870945</v>
+        <v>10.82383528870939</v>
       </c>
       <c r="U34" t="n">
-        <v>75.73913717684904</v>
+        <v>75.73913717684898</v>
       </c>
       <c r="V34" t="n">
-        <v>32.19185793630959</v>
+        <v>32.19185793630953</v>
       </c>
       <c r="W34" t="n">
-        <v>77.39354984119501</v>
+        <v>77.39354984119495</v>
       </c>
       <c r="X34" t="n">
-        <v>9.002298160102214</v>
+        <v>9.002298160102157</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.224115566028104</v>
+        <v>4.224115566028047</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>125.9940064659683</v>
+        <v>125.9940064659682</v>
       </c>
       <c r="C35" t="n">
-        <v>102.1122634693138</v>
+        <v>102.1122634693137</v>
       </c>
       <c r="D35" t="n">
-        <v>89.67892573036227</v>
+        <v>89.67892573036215</v>
       </c>
       <c r="E35" t="n">
-        <v>123.3856781497711</v>
+        <v>123.385678149771</v>
       </c>
       <c r="F35" t="n">
-        <v>155.1060157281485</v>
+        <v>155.1060157281483</v>
       </c>
       <c r="G35" t="n">
-        <v>170.7342086265614</v>
+        <v>170.7342086265613</v>
       </c>
       <c r="H35" t="n">
-        <v>98.8182717396208</v>
+        <v>98.81827173962068</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.056449146846973</v>
+        <v>2.056449146846859</v>
       </c>
       <c r="V35" t="n">
-        <v>72.786549697287</v>
+        <v>72.78654969728689</v>
       </c>
       <c r="W35" t="n">
-        <v>89.80322991390187</v>
+        <v>89.80322991390176</v>
       </c>
       <c r="X35" t="n">
-        <v>111.6894803828411</v>
+        <v>111.689480382841</v>
       </c>
       <c r="Y35" t="n">
-        <v>134.1923335065849</v>
+        <v>134.1923335065848</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>125.6800758778345</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3387,31 +3387,31 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.136586121265633</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>134.3633376148752</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>191.4841495043256</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>173.6236566222973</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>59.47255545930883</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>18.61134966514658</v>
+        <v>18.61134966514646</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>40.56306051312433</v>
+        <v>40.56306051312422</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>42.21747317747031</v>
+        <v>42.2174731774702</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>125.9940064659683</v>
+        <v>125.9940064659682</v>
       </c>
       <c r="C38" t="n">
-        <v>102.1122634693138</v>
+        <v>102.1122634693137</v>
       </c>
       <c r="D38" t="n">
-        <v>89.67892573036227</v>
+        <v>89.67892573036215</v>
       </c>
       <c r="E38" t="n">
-        <v>123.3856781497711</v>
+        <v>123.385678149771</v>
       </c>
       <c r="F38" t="n">
-        <v>155.1060157281485</v>
+        <v>155.1060157281483</v>
       </c>
       <c r="G38" t="n">
-        <v>170.7342086265614</v>
+        <v>170.7342086265613</v>
       </c>
       <c r="H38" t="n">
-        <v>98.8182717396208</v>
+        <v>98.81827173962068</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.056449146846973</v>
+        <v>2.056449146846859</v>
       </c>
       <c r="V38" t="n">
-        <v>72.786549697287</v>
+        <v>72.78654969728689</v>
       </c>
       <c r="W38" t="n">
-        <v>89.80322991390187</v>
+        <v>89.80322991390176</v>
       </c>
       <c r="X38" t="n">
-        <v>111.6894803828411</v>
+        <v>111.689480382841</v>
       </c>
       <c r="Y38" t="n">
-        <v>134.1923335065849</v>
+        <v>134.1923335065848</v>
       </c>
     </row>
     <row r="39">
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3630,25 +3630,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>191.4841495043256</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>147.1481592180129</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>18.61134966514658</v>
+        <v>79.14000202507518</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>40.56306051312433</v>
+        <v>40.56306051312422</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>42.21747317747031</v>
+        <v>42.2174731774702</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>34.76360768146946</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,19 +3867,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>191.4841495043256</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>214.9477822055827</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2276917808945</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>87.29677184730454</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>26.10849904135867</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>130.8828275259832</v>
       </c>
       <c r="F44" t="n">
-        <v>162.60316510436</v>
+        <v>162.6031651043606</v>
       </c>
       <c r="G44" t="n">
         <v>178.2313580027735</v>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>5.636548183575996</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,19 +4104,19 @@
         <v>134.3633376148752</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4841495043256</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>118.7164450269354</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V45" t="n">
-        <v>0.05283637974932276</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>26.10849904135867</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>303.0085957891678</v>
+        <v>247.0427099711588</v>
       </c>
       <c r="C11" t="n">
-        <v>303.0085957891678</v>
+        <v>123.7605905028716</v>
       </c>
       <c r="D11" t="n">
-        <v>303.0085957891678</v>
+        <v>123.7605905028716</v>
       </c>
       <c r="E11" t="n">
-        <v>303.0085957891678</v>
+        <v>123.7605905028716</v>
       </c>
       <c r="F11" t="n">
-        <v>303.0085957891678</v>
+        <v>123.7605905028716</v>
       </c>
       <c r="G11" t="n">
-        <v>179.7264763208807</v>
+        <v>123.7605905028716</v>
       </c>
       <c r="H11" t="n">
-        <v>56.44435685259356</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I11" t="n">
-        <v>9.763943861888338</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="J11" t="n">
-        <v>127.0904160344401</v>
+        <v>18.06556317397274</v>
       </c>
       <c r="K11" t="n">
-        <v>127.0904160344401</v>
+        <v>18.06556317397274</v>
       </c>
       <c r="L11" t="n">
-        <v>175.4876665214274</v>
+        <v>66.46281366095999</v>
       </c>
       <c r="M11" t="n">
-        <v>258.2148925245444</v>
+        <v>149.1900396640768</v>
       </c>
       <c r="N11" t="n">
-        <v>335.4382955160494</v>
+        <v>226.4134426555817</v>
       </c>
       <c r="O11" t="n">
-        <v>371.4488064152296</v>
+        <v>262.4239535547618</v>
       </c>
       <c r="P11" t="n">
-        <v>383.2527588456294</v>
+        <v>383.2527588456301</v>
       </c>
       <c r="Q11" t="n">
-        <v>488.0239675444167</v>
+        <v>488.0239675444173</v>
       </c>
       <c r="R11" t="n">
-        <v>488.1971930944169</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="S11" t="n">
-        <v>488.1971930944169</v>
+        <v>454.9749715372133</v>
       </c>
       <c r="T11" t="n">
-        <v>482.6212277664015</v>
+        <v>426.6553419483927</v>
       </c>
       <c r="U11" t="n">
-        <v>426.2907152574548</v>
+        <v>370.324829439446</v>
       </c>
       <c r="V11" t="n">
-        <v>426.2907152574548</v>
+        <v>370.324829439446</v>
       </c>
       <c r="W11" t="n">
-        <v>426.2907152574548</v>
+        <v>247.0427099711588</v>
       </c>
       <c r="X11" t="n">
-        <v>426.2907152574548</v>
+        <v>247.0427099711588</v>
       </c>
       <c r="Y11" t="n">
-        <v>303.0085957891678</v>
+        <v>247.0427099711588</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>185.5033815476019</v>
+        <v>133.0460633301756</v>
       </c>
       <c r="C12" t="n">
-        <v>185.5033815476019</v>
+        <v>133.0460633301756</v>
       </c>
       <c r="D12" t="n">
-        <v>185.5033815476019</v>
+        <v>133.0460633301756</v>
       </c>
       <c r="E12" t="n">
-        <v>185.5033815476019</v>
+        <v>133.0460633301756</v>
       </c>
       <c r="F12" t="n">
-        <v>62.22126207931483</v>
+        <v>133.0460633301756</v>
       </c>
       <c r="G12" t="n">
-        <v>62.22126207931483</v>
+        <v>133.0460633301756</v>
       </c>
       <c r="H12" t="n">
-        <v>62.22126207931483</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I12" t="n">
-        <v>62.22126207931483</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="J12" t="n">
-        <v>9.763943861888338</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K12" t="n">
-        <v>48.64509028167977</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="L12" t="n">
-        <v>167.2121322091852</v>
+        <v>128.3309857893937</v>
       </c>
       <c r="M12" t="n">
-        <v>288.0409375000534</v>
+        <v>249.1597910802619</v>
       </c>
       <c r="N12" t="n">
-        <v>367.3683878035487</v>
+        <v>282.6579046145619</v>
       </c>
       <c r="O12" t="n">
-        <v>488.1971930944169</v>
+        <v>403.4867099054302</v>
       </c>
       <c r="P12" t="n">
-        <v>488.1971930944169</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="Q12" t="n">
-        <v>481.9986212547547</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="R12" t="n">
-        <v>481.9986212547547</v>
+        <v>369.3403310102348</v>
       </c>
       <c r="S12" t="n">
-        <v>481.9986212547547</v>
+        <v>369.3403310102348</v>
       </c>
       <c r="T12" t="n">
-        <v>401.0246123279358</v>
+        <v>348.5672941105096</v>
       </c>
       <c r="U12" t="n">
-        <v>357.7466162612291</v>
+        <v>305.2892980438028</v>
       </c>
       <c r="V12" t="n">
-        <v>311.012833189969</v>
+        <v>258.5555149725428</v>
       </c>
       <c r="W12" t="n">
-        <v>237.9601989453662</v>
+        <v>185.5028807279399</v>
       </c>
       <c r="X12" t="n">
-        <v>214.7981395871684</v>
+        <v>162.3408213697421</v>
       </c>
       <c r="Y12" t="n">
-        <v>185.5033815476019</v>
+        <v>133.0460633301756</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.763943861888338</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="C13" t="n">
-        <v>9.763943861888338</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="D13" t="n">
-        <v>9.763943861888338</v>
+        <v>58.47177103179095</v>
       </c>
       <c r="E13" t="n">
-        <v>9.763943861888338</v>
+        <v>110.6510421497944</v>
       </c>
       <c r="F13" t="n">
-        <v>9.763943861888338</v>
+        <v>165.5520796716385</v>
       </c>
       <c r="G13" t="n">
-        <v>9.763943861888338</v>
+        <v>165.5520796716385</v>
       </c>
       <c r="H13" t="n">
-        <v>9.763943861888338</v>
+        <v>165.5520796716385</v>
       </c>
       <c r="I13" t="n">
-        <v>9.763943861888338</v>
+        <v>165.5520796716385</v>
       </c>
       <c r="J13" t="n">
-        <v>83.50228050268203</v>
+        <v>165.5520796716385</v>
       </c>
       <c r="K13" t="n">
-        <v>83.50228050268203</v>
+        <v>263.0620390629794</v>
       </c>
       <c r="L13" t="n">
-        <v>204.3310857935502</v>
+        <v>383.8908443538477</v>
       </c>
       <c r="M13" t="n">
-        <v>325.1598910844183</v>
+        <v>383.8908443538477</v>
       </c>
       <c r="N13" t="n">
-        <v>383.8908443538475</v>
+        <v>383.8908443538477</v>
       </c>
       <c r="O13" t="n">
-        <v>383.8908443538475</v>
+        <v>383.8908443538477</v>
       </c>
       <c r="P13" t="n">
-        <v>383.8908443538475</v>
+        <v>383.8908443538477</v>
       </c>
       <c r="Q13" t="n">
-        <v>383.8908443538475</v>
+        <v>383.8908443538477</v>
       </c>
       <c r="R13" t="n">
-        <v>374.9705796473622</v>
+        <v>374.9705796473623</v>
       </c>
       <c r="S13" t="n">
-        <v>333.5850382143192</v>
+        <v>333.5850382143194</v>
       </c>
       <c r="T13" t="n">
-        <v>303.9299706769506</v>
+        <v>303.9299706769507</v>
       </c>
       <c r="U13" t="n">
-        <v>208.7038911313601</v>
+        <v>208.7038911313602</v>
       </c>
       <c r="V13" t="n">
         <v>157.4649623337893</v>
       </c>
       <c r="W13" t="n">
-        <v>60.56775888481901</v>
+        <v>60.56775888481909</v>
       </c>
       <c r="X13" t="n">
-        <v>32.75262784099301</v>
+        <v>32.75262784099306</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.763943861888338</v>
+        <v>9.763943861888347</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>133.0460633301755</v>
+        <v>303.0085957891681</v>
       </c>
       <c r="C14" t="n">
-        <v>133.0460633301755</v>
+        <v>303.0085957891681</v>
       </c>
       <c r="D14" t="n">
-        <v>133.0460633301755</v>
+        <v>179.7264763208808</v>
       </c>
       <c r="E14" t="n">
-        <v>133.0460633301755</v>
+        <v>179.7264763208808</v>
       </c>
       <c r="F14" t="n">
-        <v>133.0460633301755</v>
+        <v>179.7264763208808</v>
       </c>
       <c r="G14" t="n">
-        <v>9.763943861888338</v>
+        <v>56.44435685259359</v>
       </c>
       <c r="H14" t="n">
-        <v>9.763943861888338</v>
+        <v>56.44435685259359</v>
       </c>
       <c r="I14" t="n">
-        <v>9.763943861888338</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="J14" t="n">
         <v>127.09041603444</v>
       </c>
       <c r="K14" t="n">
-        <v>127.09041603444</v>
+        <v>138.894368464841</v>
       </c>
       <c r="L14" t="n">
-        <v>175.4876665214274</v>
+        <v>187.2916189518283</v>
       </c>
       <c r="M14" t="n">
-        <v>258.2148925245443</v>
+        <v>270.0188449549451</v>
       </c>
       <c r="N14" t="n">
-        <v>335.4382955160493</v>
+        <v>347.2422479464499</v>
       </c>
       <c r="O14" t="n">
-        <v>371.4488064152295</v>
+        <v>383.2527588456301</v>
       </c>
       <c r="P14" t="n">
-        <v>383.2527588456295</v>
+        <v>383.2527588456301</v>
       </c>
       <c r="Q14" t="n">
-        <v>488.0239675444168</v>
+        <v>488.0239675444173</v>
       </c>
       <c r="R14" t="n">
-        <v>488.1971930944169</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="S14" t="n">
-        <v>488.1971930944169</v>
+        <v>454.9749715372134</v>
       </c>
       <c r="T14" t="n">
-        <v>459.8775635055964</v>
+        <v>454.9749715372134</v>
       </c>
       <c r="U14" t="n">
-        <v>459.8775635055964</v>
+        <v>454.9749715372134</v>
       </c>
       <c r="V14" t="n">
-        <v>459.8775635055964</v>
+        <v>426.2907152574553</v>
       </c>
       <c r="W14" t="n">
-        <v>336.5954440373093</v>
+        <v>426.2907152574553</v>
       </c>
       <c r="X14" t="n">
-        <v>336.5954440373093</v>
+        <v>303.0085957891681</v>
       </c>
       <c r="Y14" t="n">
-        <v>213.3133245690222</v>
+        <v>303.0085957891681</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>241.2942845157523</v>
+        <v>62.22126207931487</v>
       </c>
       <c r="C15" t="n">
-        <v>118.0121650474652</v>
+        <v>62.22126207931487</v>
       </c>
       <c r="D15" t="n">
-        <v>118.0121650474652</v>
+        <v>62.22126207931487</v>
       </c>
       <c r="E15" t="n">
-        <v>118.0121650474652</v>
+        <v>62.22126207931487</v>
       </c>
       <c r="F15" t="n">
-        <v>118.0121650474652</v>
+        <v>62.22126207931487</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0121650474652</v>
+        <v>62.22126207931487</v>
       </c>
       <c r="H15" t="n">
-        <v>118.0121650474652</v>
+        <v>62.22126207931487</v>
       </c>
       <c r="I15" t="n">
-        <v>9.763943861888338</v>
+        <v>62.22126207931487</v>
       </c>
       <c r="J15" t="n">
-        <v>9.763943861888338</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K15" t="n">
-        <v>48.64509028167977</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="L15" t="n">
-        <v>161.8290993236933</v>
+        <v>128.3309857893937</v>
       </c>
       <c r="M15" t="n">
-        <v>282.6579046145615</v>
+        <v>161.8290993236936</v>
       </c>
       <c r="N15" t="n">
-        <v>403.4867099054296</v>
+        <v>282.6579046145619</v>
       </c>
       <c r="O15" t="n">
-        <v>403.4867099054296</v>
+        <v>403.4867099054302</v>
       </c>
       <c r="P15" t="n">
-        <v>488.1971930944169</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="Q15" t="n">
-        <v>481.9986212547547</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="R15" t="n">
-        <v>477.5885521958117</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="S15" t="n">
-        <v>477.5885521958117</v>
+        <v>358.7165017864678</v>
       </c>
       <c r="T15" t="n">
-        <v>456.8155152960865</v>
+        <v>277.7424928596489</v>
       </c>
       <c r="U15" t="n">
-        <v>413.5375192293797</v>
+        <v>234.4644967929422</v>
       </c>
       <c r="V15" t="n">
-        <v>366.8037361581196</v>
+        <v>187.7307137216821</v>
       </c>
       <c r="W15" t="n">
-        <v>293.7511019135167</v>
+        <v>114.6780794770792</v>
       </c>
       <c r="X15" t="n">
-        <v>270.5890425553189</v>
+        <v>91.51602011888139</v>
       </c>
       <c r="Y15" t="n">
-        <v>241.2942845157523</v>
+        <v>62.22126207931487</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.763943861888338</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="C16" t="n">
-        <v>9.763943861888338</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="D16" t="n">
-        <v>9.763943861888338</v>
+        <v>58.47177103179095</v>
       </c>
       <c r="E16" t="n">
-        <v>61.94321497989178</v>
+        <v>110.6510421497944</v>
       </c>
       <c r="F16" t="n">
-        <v>116.8442525017358</v>
+        <v>165.5520796716385</v>
       </c>
       <c r="G16" t="n">
-        <v>116.8442525017358</v>
+        <v>190.9817285777727</v>
       </c>
       <c r="H16" t="n">
-        <v>142.2332337721116</v>
+        <v>190.9817285777727</v>
       </c>
       <c r="I16" t="n">
-        <v>142.2332337721116</v>
+        <v>220.3592426433846</v>
       </c>
       <c r="J16" t="n">
-        <v>142.2332337721116</v>
+        <v>220.3592426433846</v>
       </c>
       <c r="K16" t="n">
-        <v>142.2332337721116</v>
+        <v>220.3592426433846</v>
       </c>
       <c r="L16" t="n">
-        <v>263.0620390629798</v>
+        <v>220.3592426433846</v>
       </c>
       <c r="M16" t="n">
-        <v>263.0620390629798</v>
+        <v>220.3592426433846</v>
       </c>
       <c r="N16" t="n">
-        <v>383.890844353848</v>
+        <v>316.997991874449</v>
       </c>
       <c r="O16" t="n">
-        <v>383.890844353848</v>
+        <v>316.997991874449</v>
       </c>
       <c r="P16" t="n">
-        <v>383.890844353848</v>
+        <v>316.997991874449</v>
       </c>
       <c r="Q16" t="n">
-        <v>383.890844353848</v>
+        <v>383.8908443538477</v>
       </c>
       <c r="R16" t="n">
-        <v>374.9705796473626</v>
+        <v>374.9705796473623</v>
       </c>
       <c r="S16" t="n">
-        <v>333.5850382143196</v>
+        <v>333.5850382143194</v>
       </c>
       <c r="T16" t="n">
-        <v>303.9299706769509</v>
+        <v>303.9299706769507</v>
       </c>
       <c r="U16" t="n">
-        <v>208.7038911313603</v>
+        <v>208.7038911313602</v>
       </c>
       <c r="V16" t="n">
-        <v>157.4649623337894</v>
+        <v>157.4649623337893</v>
       </c>
       <c r="W16" t="n">
-        <v>60.56775888481913</v>
+        <v>60.56775888481909</v>
       </c>
       <c r="X16" t="n">
-        <v>32.75262784099307</v>
+        <v>32.75262784099306</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.763943861888338</v>
+        <v>9.763943861888347</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>315.9417875589137</v>
+        <v>315.9417875589143</v>
       </c>
       <c r="C17" t="n">
-        <v>286.3198544558565</v>
+        <v>286.3198544558571</v>
       </c>
       <c r="D17" t="n">
-        <v>269.256848361841</v>
+        <v>269.2568483618416</v>
       </c>
       <c r="E17" t="n">
-        <v>218.1466176017561</v>
+        <v>218.1466176017566</v>
       </c>
       <c r="F17" t="n">
-        <v>134.995641813007</v>
+        <v>134.9956418130076</v>
       </c>
       <c r="G17" t="n">
-        <v>36.05861259151844</v>
+        <v>36.05861259151845</v>
       </c>
       <c r="H17" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="I17" t="n">
-        <v>76.33973727374021</v>
+        <v>89.24480594465243</v>
       </c>
       <c r="J17" t="n">
-        <v>76.33973727374021</v>
+        <v>89.24480594465243</v>
       </c>
       <c r="K17" t="n">
-        <v>76.33973727374021</v>
+        <v>89.24480594465243</v>
       </c>
       <c r="L17" t="n">
-        <v>124.7369877607276</v>
+        <v>137.6420564316397</v>
       </c>
       <c r="M17" t="n">
-        <v>207.4642137638446</v>
+        <v>220.3692824347565</v>
       </c>
       <c r="N17" t="n">
-        <v>284.6876167553495</v>
+        <v>297.5926854262614</v>
       </c>
       <c r="O17" t="n">
-        <v>320.6981276545297</v>
+        <v>333.6031963254415</v>
       </c>
       <c r="P17" t="n">
-        <v>320.6981276545297</v>
+        <v>333.6031963254415</v>
       </c>
       <c r="Q17" t="n">
-        <v>320.6981276545297</v>
+        <v>333.6031963254415</v>
       </c>
       <c r="R17" t="n">
-        <v>320.6981276545297</v>
+        <v>333.6031963254415</v>
       </c>
       <c r="S17" t="n">
-        <v>320.6981276545297</v>
+        <v>333.6031963254415</v>
       </c>
       <c r="T17" t="n">
-        <v>418.1743935494812</v>
+        <v>418.1743935494817</v>
       </c>
       <c r="U17" t="n">
-        <v>488.1971930944168</v>
+        <v>488.1971930944174</v>
       </c>
       <c r="V17" t="n">
-        <v>488.1971930944168</v>
+        <v>488.1971930944174</v>
       </c>
       <c r="W17" t="n">
-        <v>471.0086272190484</v>
+        <v>471.0086272190489</v>
       </c>
       <c r="X17" t="n">
-        <v>431.7127376376806</v>
+        <v>431.7127376376812</v>
       </c>
       <c r="Y17" t="n">
-        <v>369.6866933858645</v>
+        <v>369.6866933858651</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>133.0460633301754</v>
+        <v>364.5764039840397</v>
       </c>
       <c r="C18" t="n">
-        <v>133.0460633301754</v>
+        <v>364.5764039840397</v>
       </c>
       <c r="D18" t="n">
-        <v>133.0460633301754</v>
+        <v>241.2942845157525</v>
       </c>
       <c r="E18" t="n">
-        <v>9.763943861888336</v>
+        <v>241.2942845157525</v>
       </c>
       <c r="F18" t="n">
-        <v>9.763943861888336</v>
+        <v>118.0121650474652</v>
       </c>
       <c r="G18" t="n">
-        <v>9.763943861888336</v>
+        <v>118.0121650474652</v>
       </c>
       <c r="H18" t="n">
-        <v>9.763943861888336</v>
+        <v>118.0121650474652</v>
       </c>
       <c r="I18" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="J18" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="K18" t="n">
-        <v>48.64509028167977</v>
+        <v>48.64509028167972</v>
       </c>
       <c r="L18" t="n">
-        <v>167.2121322091852</v>
+        <v>167.212132209185</v>
       </c>
       <c r="M18" t="n">
-        <v>246.5395825126805</v>
+        <v>167.212132209185</v>
       </c>
       <c r="N18" t="n">
-        <v>367.3683878035487</v>
+        <v>282.657904614562</v>
       </c>
       <c r="O18" t="n">
-        <v>488.1971930944168</v>
+        <v>403.4867099054302</v>
       </c>
       <c r="P18" t="n">
-        <v>488.1971930944168</v>
+        <v>488.1971930944174</v>
       </c>
       <c r="Q18" t="n">
-        <v>488.1971930944168</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="R18" t="n">
-        <v>488.1971930944168</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="S18" t="n">
-        <v>364.9150736261298</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="T18" t="n">
-        <v>364.9150736261298</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="U18" t="n">
-        <v>256.3281827984625</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="V18" t="n">
-        <v>256.3281827984625</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="W18" t="n">
-        <v>133.0460633301754</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="X18" t="n">
-        <v>133.0460633301754</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="Y18" t="n">
-        <v>133.0460633301754</v>
+        <v>481.9986212547551</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="C19" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="D19" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="E19" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="F19" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="G19" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="H19" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="I19" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="J19" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="K19" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="L19" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="M19" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="N19" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="O19" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="P19" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="R19" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="S19" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="T19" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="U19" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="V19" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="W19" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="X19" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>315.941787558914</v>
+        <v>315.9417875589145</v>
       </c>
       <c r="C20" t="n">
-        <v>286.3198544558566</v>
+        <v>286.319854455857</v>
       </c>
       <c r="D20" t="n">
-        <v>269.2568483618413</v>
+        <v>269.2568483618418</v>
       </c>
       <c r="E20" t="n">
-        <v>218.1466176017561</v>
+        <v>218.1466176017566</v>
       </c>
       <c r="F20" t="n">
-        <v>134.9956418130073</v>
+        <v>134.9956418130078</v>
       </c>
       <c r="G20" t="n">
-        <v>36.05861259151838</v>
+        <v>36.05861259151839</v>
       </c>
       <c r="H20" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="I20" t="n">
-        <v>89.2448059446525</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="J20" t="n">
-        <v>89.2448059446525</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="K20" t="n">
-        <v>89.2448059446525</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="L20" t="n">
-        <v>137.6420564316398</v>
+        <v>58.1611943488756</v>
       </c>
       <c r="M20" t="n">
-        <v>220.3692824347568</v>
+        <v>140.8884203519924</v>
       </c>
       <c r="N20" t="n">
-        <v>297.5926854262618</v>
+        <v>218.1118233434973</v>
       </c>
       <c r="O20" t="n">
-        <v>333.603196325442</v>
+        <v>254.1223342426774</v>
       </c>
       <c r="P20" t="n">
-        <v>333.603196325442</v>
+        <v>254.1223342426774</v>
       </c>
       <c r="Q20" t="n">
-        <v>333.603196325442</v>
+        <v>254.1223342426774</v>
       </c>
       <c r="R20" t="n">
-        <v>333.603196325442</v>
+        <v>374.9511395335457</v>
       </c>
       <c r="S20" t="n">
-        <v>333.603196325442</v>
+        <v>467.6223750402844</v>
       </c>
       <c r="T20" t="n">
-        <v>418.1743935494811</v>
+        <v>467.6223750402844</v>
       </c>
       <c r="U20" t="n">
-        <v>488.1971930944168</v>
+        <v>488.1971930944174</v>
       </c>
       <c r="V20" t="n">
-        <v>488.1971930944169</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="W20" t="n">
-        <v>471.0086272190483</v>
+        <v>471.0086272190488</v>
       </c>
       <c r="X20" t="n">
-        <v>431.7127376376808</v>
+        <v>431.7127376376812</v>
       </c>
       <c r="Y20" t="n">
-        <v>369.6866933858648</v>
+        <v>369.6866933858652</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>308.785501015889</v>
+        <v>417.0337222014662</v>
       </c>
       <c r="C21" t="n">
-        <v>185.5033815476019</v>
+        <v>417.0337222014662</v>
       </c>
       <c r="D21" t="n">
-        <v>62.22126207931483</v>
+        <v>417.0337222014662</v>
       </c>
       <c r="E21" t="n">
-        <v>62.22126207931483</v>
+        <v>417.0337222014662</v>
       </c>
       <c r="F21" t="n">
-        <v>62.22126207931483</v>
+        <v>417.0337222014662</v>
       </c>
       <c r="G21" t="n">
-        <v>62.22126207931483</v>
+        <v>293.751602733179</v>
       </c>
       <c r="H21" t="n">
-        <v>62.22126207931483</v>
+        <v>170.4694832648917</v>
       </c>
       <c r="I21" t="n">
-        <v>62.22126207931483</v>
+        <v>62.22126207931488</v>
       </c>
       <c r="J21" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="K21" t="n">
-        <v>48.64509028167977</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="L21" t="n">
-        <v>167.2121322091852</v>
+        <v>128.3309857893937</v>
       </c>
       <c r="M21" t="n">
-        <v>288.0409375000534</v>
+        <v>249.159791080262</v>
       </c>
       <c r="N21" t="n">
-        <v>408.8697427909215</v>
+        <v>282.657904614562</v>
       </c>
       <c r="O21" t="n">
-        <v>488.1971930944168</v>
+        <v>403.4867099054302</v>
       </c>
       <c r="P21" t="n">
-        <v>488.1971930944168</v>
+        <v>488.1971930944174</v>
       </c>
       <c r="Q21" t="n">
-        <v>481.9986212547546</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="R21" t="n">
-        <v>358.7165017864675</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="S21" t="n">
-        <v>308.785501015889</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="T21" t="n">
-        <v>308.785501015889</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="U21" t="n">
-        <v>308.785501015889</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="V21" t="n">
-        <v>308.785501015889</v>
+        <v>417.0337222014662</v>
       </c>
       <c r="W21" t="n">
-        <v>308.785501015889</v>
+        <v>417.0337222014662</v>
       </c>
       <c r="X21" t="n">
-        <v>308.785501015889</v>
+        <v>417.0337222014662</v>
       </c>
       <c r="Y21" t="n">
-        <v>308.785501015889</v>
+        <v>417.0337222014662</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="C22" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="D22" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="E22" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="F22" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="G22" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="H22" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="I22" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="J22" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="K22" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="L22" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="M22" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="N22" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="O22" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="P22" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="R22" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="S22" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="T22" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="U22" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="V22" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="W22" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="X22" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.763943861888336</v>
+        <v>9.763943861888349</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>315.9417875589144</v>
       </c>
       <c r="C23" t="n">
-        <v>286.3198544558573</v>
+        <v>286.3198544558569</v>
       </c>
       <c r="D23" t="n">
-        <v>269.2568483618419</v>
+        <v>269.2568483618417</v>
       </c>
       <c r="E23" t="n">
-        <v>218.146617601757</v>
+        <v>218.1466176017565</v>
       </c>
       <c r="F23" t="n">
-        <v>134.9956418130079</v>
+        <v>134.9956418130076</v>
       </c>
       <c r="G23" t="n">
         <v>36.05861259151839</v>
@@ -5984,28 +5984,28 @@
         <v>9.763943861888345</v>
       </c>
       <c r="I23" t="n">
-        <v>89.24480594465251</v>
+        <v>89.24480594465248</v>
       </c>
       <c r="J23" t="n">
-        <v>89.24480594465251</v>
+        <v>210.0736112355207</v>
       </c>
       <c r="K23" t="n">
-        <v>171.4072479097468</v>
+        <v>210.0736112355207</v>
       </c>
       <c r="L23" t="n">
-        <v>292.2360532006151</v>
+        <v>258.470861722508</v>
       </c>
       <c r="M23" t="n">
-        <v>374.963279203732</v>
+        <v>341.1980877256249</v>
       </c>
       <c r="N23" t="n">
-        <v>452.186682195237</v>
+        <v>418.4214907171297</v>
       </c>
       <c r="O23" t="n">
-        <v>488.1971930944172</v>
+        <v>454.4320016163098</v>
       </c>
       <c r="P23" t="n">
-        <v>488.1971930944172</v>
+        <v>454.4320016163098</v>
       </c>
       <c r="Q23" t="n">
         <v>488.1971930944172</v>
@@ -6023,16 +6023,16 @@
         <v>488.1971930944172</v>
       </c>
       <c r="V23" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944172</v>
       </c>
       <c r="W23" t="n">
-        <v>471.0086272190488</v>
+        <v>471.0086272190487</v>
       </c>
       <c r="X23" t="n">
         <v>431.7127376376811</v>
       </c>
       <c r="Y23" t="n">
-        <v>369.6866933858652</v>
+        <v>369.6866933858651</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>488.1971930944172</v>
+        <v>241.2942845157524</v>
       </c>
       <c r="C24" t="n">
-        <v>364.91507362613</v>
+        <v>241.2942845157524</v>
       </c>
       <c r="D24" t="n">
-        <v>241.6329541578428</v>
+        <v>241.2942845157524</v>
       </c>
       <c r="E24" t="n">
-        <v>133.0460633301755</v>
+        <v>241.2942845157524</v>
       </c>
       <c r="F24" t="n">
-        <v>9.763943861888345</v>
+        <v>241.2942845157524</v>
       </c>
       <c r="G24" t="n">
-        <v>9.763943861888345</v>
+        <v>241.2942845157524</v>
       </c>
       <c r="H24" t="n">
-        <v>9.763943861888345</v>
+        <v>118.0121650474652</v>
       </c>
       <c r="I24" t="n">
         <v>9.763943861888345</v>
@@ -6069,49 +6069,49 @@
         <v>9.763943861888345</v>
       </c>
       <c r="K24" t="n">
-        <v>48.64509028167978</v>
+        <v>48.64509028167971</v>
       </c>
       <c r="L24" t="n">
-        <v>167.2121322091852</v>
+        <v>167.212132209185</v>
       </c>
       <c r="M24" t="n">
-        <v>246.5395825126807</v>
+        <v>288.0409375000533</v>
       </c>
       <c r="N24" t="n">
-        <v>367.368387803549</v>
+        <v>288.0409375000533</v>
       </c>
       <c r="O24" t="n">
-        <v>488.1971930944172</v>
+        <v>403.4867099054301</v>
       </c>
       <c r="P24" t="n">
         <v>488.1971930944172</v>
       </c>
       <c r="Q24" t="n">
-        <v>488.1971930944172</v>
+        <v>481.9986212547549</v>
       </c>
       <c r="R24" t="n">
-        <v>488.1971930944172</v>
+        <v>364.5764039840396</v>
       </c>
       <c r="S24" t="n">
-        <v>488.1971930944172</v>
+        <v>364.5764039840396</v>
       </c>
       <c r="T24" t="n">
-        <v>488.1971930944172</v>
+        <v>364.5764039840396</v>
       </c>
       <c r="U24" t="n">
-        <v>488.1971930944172</v>
+        <v>364.5764039840396</v>
       </c>
       <c r="V24" t="n">
-        <v>488.1971930944172</v>
+        <v>364.5764039840396</v>
       </c>
       <c r="W24" t="n">
-        <v>488.1971930944172</v>
+        <v>364.5764039840396</v>
       </c>
       <c r="X24" t="n">
-        <v>488.1971930944172</v>
+        <v>241.2942845157524</v>
       </c>
       <c r="Y24" t="n">
-        <v>488.1971930944172</v>
+        <v>241.2942845157524</v>
       </c>
     </row>
     <row r="25">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1024.530470300262</v>
+        <v>1024.530470300261</v>
       </c>
       <c r="C26" t="n">
-        <v>885.8553792567883</v>
+        <v>885.855379256788</v>
       </c>
       <c r="D26" t="n">
-        <v>759.739215222357</v>
+        <v>759.7392152223566</v>
       </c>
       <c r="E26" t="n">
-        <v>599.575826521856</v>
+        <v>599.5758265218558</v>
       </c>
       <c r="F26" t="n">
-        <v>407.3716927926912</v>
+        <v>407.371692792691</v>
       </c>
       <c r="G26" t="n">
-        <v>199.381505630786</v>
+        <v>199.3815056307858</v>
       </c>
       <c r="H26" t="n">
-        <v>64.03367896073999</v>
+        <v>64.03367896073985</v>
       </c>
       <c r="I26" t="n">
         <v>36.07516654911174</v>
       </c>
       <c r="J26" t="n">
-        <v>171.7509734792163</v>
+        <v>171.750973479216</v>
       </c>
       <c r="K26" t="n">
-        <v>377.2303396281798</v>
+        <v>377.2303396281794</v>
       </c>
       <c r="L26" t="n">
-        <v>636.415575790826</v>
+        <v>636.4155757908256</v>
       </c>
       <c r="M26" t="n">
-        <v>929.9307874696019</v>
+        <v>929.9307874696015</v>
       </c>
       <c r="N26" t="n">
-        <v>1217.942176136766</v>
+        <v>1217.942176136765</v>
       </c>
       <c r="O26" t="n">
-        <v>1464.740672711605</v>
+        <v>1464.740672711604</v>
       </c>
       <c r="P26" t="n">
         <v>1662.115223691694</v>
@@ -6263,7 +6263,7 @@
         <v>1632.998507597428</v>
       </c>
       <c r="W26" t="n">
-        <v>1506.756783781644</v>
+        <v>1506.756783781643</v>
       </c>
       <c r="X26" t="n">
         <v>1358.40773625986</v>
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>36.07516654911174</v>
+        <v>225.487440816148</v>
       </c>
       <c r="C27" t="n">
         <v>36.07516654911174</v>
@@ -6306,49 +6306,49 @@
         <v>36.07516654911174</v>
       </c>
       <c r="K27" t="n">
-        <v>74.95631296890318</v>
+        <v>74.95631296890311</v>
       </c>
       <c r="L27" t="n">
-        <v>193.5233548964086</v>
+        <v>193.5233548964084</v>
       </c>
       <c r="M27" t="n">
-        <v>376.6401645971883</v>
+        <v>376.6401645971881</v>
       </c>
       <c r="N27" t="n">
-        <v>583.0234209365544</v>
+        <v>583.0234209365542</v>
       </c>
       <c r="O27" t="n">
-        <v>716.0766978848379</v>
+        <v>716.0766978848376</v>
       </c>
       <c r="P27" t="n">
-        <v>800.7871810738252</v>
+        <v>800.7871810738247</v>
       </c>
       <c r="Q27" t="n">
-        <v>794.588609234163</v>
+        <v>800.7871810738247</v>
       </c>
       <c r="R27" t="n">
-        <v>794.588609234163</v>
+        <v>800.7871810738247</v>
       </c>
       <c r="S27" t="n">
-        <v>794.588609234163</v>
+        <v>800.7871810738247</v>
       </c>
       <c r="T27" t="n">
-        <v>792.5374729135141</v>
+        <v>798.736044753176</v>
       </c>
       <c r="U27" t="n">
-        <v>563.5664701547981</v>
+        <v>559.1121136613633</v>
       </c>
       <c r="V27" t="n">
-        <v>320.4867520584322</v>
+        <v>531.1002311691796</v>
       </c>
       <c r="W27" t="n">
-        <v>51.08818278872356</v>
+        <v>261.7016618994709</v>
       </c>
       <c r="X27" t="n">
-        <v>46.648024009602</v>
+        <v>236.0602982766382</v>
       </c>
       <c r="Y27" t="n">
-        <v>36.07516654911174</v>
+        <v>225.487440816148</v>
       </c>
     </row>
     <row r="28">
@@ -6358,73 +6358,73 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71.02240076645219</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="C28" t="n">
-        <v>117.0177772798584</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="D28" t="n">
-        <v>184.0749392073137</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="E28" t="n">
-        <v>254.6035450828698</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="F28" t="n">
-        <v>270.228498281052</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="G28" t="n">
-        <v>270.228498281052</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="H28" t="n">
-        <v>270.228498281052</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="I28" t="n">
-        <v>270.228498281052</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="J28" t="n">
-        <v>270.228498281052</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="K28" t="n">
-        <v>270.228498281052</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="L28" t="n">
-        <v>270.228498281052</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="M28" t="n">
-        <v>270.228498281052</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="N28" t="n">
-        <v>270.228498281052</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="O28" t="n">
-        <v>270.228498281052</v>
+        <v>210.4325916083658</v>
       </c>
       <c r="P28" t="n">
-        <v>270.228498281052</v>
+        <v>210.4325916083658</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.228498281052</v>
+        <v>270.2284982810514</v>
       </c>
       <c r="R28" t="n">
-        <v>270.228498281052</v>
+        <v>270.2284982810514</v>
       </c>
       <c r="S28" t="n">
-        <v>247.5648574270852</v>
+        <v>247.5648574270847</v>
       </c>
       <c r="T28" t="n">
-        <v>236.6316904687928</v>
+        <v>236.6316904687924</v>
       </c>
       <c r="U28" t="n">
-        <v>160.1275115022786</v>
+        <v>160.1275115022782</v>
       </c>
       <c r="V28" t="n">
-        <v>127.610483283784</v>
+        <v>127.6104832837837</v>
       </c>
       <c r="W28" t="n">
-        <v>49.43518041388995</v>
+        <v>49.43518041388977</v>
       </c>
       <c r="X28" t="n">
-        <v>40.34194994914019</v>
+        <v>40.34194994914009</v>
       </c>
       <c r="Y28" t="n">
         <v>36.07516654911174</v>
@@ -6440,19 +6440,19 @@
         <v>1024.530470300262</v>
       </c>
       <c r="C29" t="n">
-        <v>885.8553792567884</v>
+        <v>885.855379256789</v>
       </c>
       <c r="D29" t="n">
-        <v>759.7392152223571</v>
+        <v>759.7392152223578</v>
       </c>
       <c r="E29" t="n">
-        <v>599.5758265218562</v>
+        <v>599.5758265218569</v>
       </c>
       <c r="F29" t="n">
-        <v>407.3716927926914</v>
+        <v>407.3716927926921</v>
       </c>
       <c r="G29" t="n">
-        <v>199.3815056307863</v>
+        <v>199.3815056307869</v>
       </c>
       <c r="H29" t="n">
         <v>64.03367896074064</v>
@@ -6464,10 +6464,10 @@
         <v>171.7509734792162</v>
       </c>
       <c r="K29" t="n">
-        <v>377.2303396281796</v>
+        <v>377.2303396281792</v>
       </c>
       <c r="L29" t="n">
-        <v>636.4155757908259</v>
+        <v>636.4155757908254</v>
       </c>
       <c r="M29" t="n">
         <v>929.9307874696012</v>
@@ -6494,19 +6494,19 @@
         <v>1779.660277467715</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.051665537844</v>
+        <v>1742.051665537845</v>
       </c>
       <c r="V29" t="n">
-        <v>1632.998507597428</v>
+        <v>1632.998507597429</v>
       </c>
       <c r="W29" t="n">
-        <v>1506.756783781644</v>
+        <v>1506.756783781645</v>
       </c>
       <c r="X29" t="n">
-        <v>1358.40773625986</v>
+        <v>1358.407736259861</v>
       </c>
       <c r="Y29" t="n">
-        <v>1187.328534067628</v>
+        <v>1187.328534067629</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>461.7564812640416</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="C30" t="n">
-        <v>272.3442069970054</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="D30" t="n">
-        <v>272.3442069970054</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="E30" t="n">
-        <v>272.3442069970054</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="F30" t="n">
-        <v>272.3442069970054</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="G30" t="n">
-        <v>122.1029310459792</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="H30" t="n">
         <v>36.07516654911174</v>
@@ -6543,49 +6543,49 @@
         <v>36.07516654911174</v>
       </c>
       <c r="K30" t="n">
-        <v>74.95631296890318</v>
+        <v>74.95631296890311</v>
       </c>
       <c r="L30" t="n">
-        <v>193.5233548964086</v>
+        <v>193.5233548964084</v>
       </c>
       <c r="M30" t="n">
-        <v>376.6401645971883</v>
+        <v>376.6401645971881</v>
       </c>
       <c r="N30" t="n">
-        <v>583.0234209365544</v>
+        <v>583.0234209365542</v>
       </c>
       <c r="O30" t="n">
-        <v>716.0766978848379</v>
+        <v>716.0766978848376</v>
       </c>
       <c r="P30" t="n">
-        <v>800.7871810738252</v>
+        <v>800.7871810738247</v>
       </c>
       <c r="Q30" t="n">
-        <v>800.7871810738252</v>
+        <v>800.7871810738247</v>
       </c>
       <c r="R30" t="n">
-        <v>800.7871810738252</v>
+        <v>665.0666380284962</v>
       </c>
       <c r="S30" t="n">
-        <v>800.7871810738252</v>
+        <v>590.1737019630773</v>
       </c>
       <c r="T30" t="n">
-        <v>798.7360447531763</v>
+        <v>373.0547300382462</v>
       </c>
       <c r="U30" t="n">
-        <v>774.1799492655458</v>
+        <v>133.4307989464336</v>
       </c>
       <c r="V30" t="n">
-        <v>531.1002311691799</v>
+        <v>105.4189164542499</v>
       </c>
       <c r="W30" t="n">
-        <v>476.7694975036533</v>
+        <v>51.08818278872339</v>
       </c>
       <c r="X30" t="n">
-        <v>472.3293387245318</v>
+        <v>46.64802400960191</v>
       </c>
       <c r="Y30" t="n">
-        <v>461.7564812640416</v>
+        <v>36.07516654911174</v>
       </c>
     </row>
     <row r="31">
@@ -6595,73 +6595,73 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.02240076645225</v>
+        <v>71.02240076645226</v>
       </c>
       <c r="C31" t="n">
-        <v>117.0177772798585</v>
+        <v>71.02240076645226</v>
       </c>
       <c r="D31" t="n">
-        <v>184.0749392073138</v>
+        <v>71.02240076645226</v>
       </c>
       <c r="E31" t="n">
-        <v>184.0749392073138</v>
+        <v>71.02240076645226</v>
       </c>
       <c r="F31" t="n">
-        <v>184.0749392073138</v>
+        <v>71.02240076645226</v>
       </c>
       <c r="G31" t="n">
-        <v>184.0749392073138</v>
+        <v>71.02240076645226</v>
       </c>
       <c r="H31" t="n">
-        <v>230.739137861753</v>
+        <v>71.02240076645226</v>
       </c>
       <c r="I31" t="n">
-        <v>230.739137861753</v>
+        <v>71.02240076645226</v>
       </c>
       <c r="J31" t="n">
-        <v>230.739137861753</v>
+        <v>71.02240076645226</v>
       </c>
       <c r="K31" t="n">
-        <v>230.739137861753</v>
+        <v>71.02240076645226</v>
       </c>
       <c r="L31" t="n">
-        <v>270.2284982810516</v>
+        <v>71.02240076645226</v>
       </c>
       <c r="M31" t="n">
-        <v>270.2284982810516</v>
+        <v>71.02240076645226</v>
       </c>
       <c r="N31" t="n">
-        <v>270.2284982810516</v>
+        <v>71.02240076645226</v>
       </c>
       <c r="O31" t="n">
-        <v>270.2284982810516</v>
+        <v>245.3798258257063</v>
       </c>
       <c r="P31" t="n">
-        <v>270.2284982810516</v>
+        <v>245.3798258257063</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.2284982810516</v>
+        <v>260.6219149623249</v>
       </c>
       <c r="R31" t="n">
-        <v>270.2284982810516</v>
+        <v>270.2284982810514</v>
       </c>
       <c r="S31" t="n">
-        <v>247.5648574270849</v>
+        <v>247.5648574270847</v>
       </c>
       <c r="T31" t="n">
-        <v>236.6316904687925</v>
+        <v>236.6316904687924</v>
       </c>
       <c r="U31" t="n">
-        <v>160.1275115022783</v>
+        <v>160.1275115022782</v>
       </c>
       <c r="V31" t="n">
-        <v>127.6104832837838</v>
+        <v>127.6104832837837</v>
       </c>
       <c r="W31" t="n">
-        <v>49.43518041388984</v>
+        <v>49.43518041388977</v>
       </c>
       <c r="X31" t="n">
-        <v>40.34194994914013</v>
+        <v>40.34194994914009</v>
       </c>
       <c r="Y31" t="n">
         <v>36.07516654911174</v>
@@ -6677,37 +6677,37 @@
         <v>1024.530470300262</v>
       </c>
       <c r="C32" t="n">
-        <v>885.8553792567891</v>
+        <v>885.8553792567886</v>
       </c>
       <c r="D32" t="n">
-        <v>759.7392152223578</v>
+        <v>759.7392152223574</v>
       </c>
       <c r="E32" t="n">
-        <v>599.5758265218569</v>
+        <v>599.5758265218566</v>
       </c>
       <c r="F32" t="n">
-        <v>407.3716927926921</v>
+        <v>407.3716927926918</v>
       </c>
       <c r="G32" t="n">
-        <v>199.3815056307869</v>
+        <v>199.3815056307866</v>
       </c>
       <c r="H32" t="n">
-        <v>64.03367896074064</v>
+        <v>64.0336789607406</v>
       </c>
       <c r="I32" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="J32" t="n">
         <v>171.7509734792162</v>
       </c>
       <c r="K32" t="n">
-        <v>377.2303396281796</v>
+        <v>377.2303396281787</v>
       </c>
       <c r="L32" t="n">
-        <v>636.4155757908259</v>
+        <v>636.415575790825</v>
       </c>
       <c r="M32" t="n">
-        <v>929.9307874696017</v>
+        <v>929.9307874696008</v>
       </c>
       <c r="N32" t="n">
         <v>1217.942176136765</v>
@@ -6725,25 +6725,25 @@
         <v>1803.758327455587</v>
       </c>
       <c r="S32" t="n">
-        <v>1789.25800647746</v>
+        <v>1789.258006477459</v>
       </c>
       <c r="T32" t="n">
         <v>1779.660277467715</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.051665537845</v>
+        <v>1742.051665537844</v>
       </c>
       <c r="V32" t="n">
-        <v>1632.998507597429</v>
+        <v>1632.998507597428</v>
       </c>
       <c r="W32" t="n">
-        <v>1506.756783781645</v>
+        <v>1506.756783781644</v>
       </c>
       <c r="X32" t="n">
-        <v>1358.407736259861</v>
+        <v>1358.40773625986</v>
       </c>
       <c r="Y32" t="n">
-        <v>1187.328534067629</v>
+        <v>1187.328534067628</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>370.4184866666656</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="C33" t="n">
-        <v>370.4184866666656</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="D33" t="n">
-        <v>209.6383704276973</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="E33" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="F33" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="G33" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="H33" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="I33" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="J33" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="K33" t="n">
-        <v>74.95631296890318</v>
+        <v>74.95631296890313</v>
       </c>
       <c r="L33" t="n">
-        <v>193.5233548964086</v>
+        <v>193.5233548964085</v>
       </c>
       <c r="M33" t="n">
-        <v>376.6401645971883</v>
+        <v>376.6401645971882</v>
       </c>
       <c r="N33" t="n">
-        <v>583.0234209365544</v>
+        <v>583.0234209365543</v>
       </c>
       <c r="O33" t="n">
-        <v>716.0766978848379</v>
+        <v>716.0766978848377</v>
       </c>
       <c r="P33" t="n">
-        <v>800.7871810738252</v>
+        <v>800.787181073825</v>
       </c>
       <c r="Q33" t="n">
-        <v>800.7871810738252</v>
+        <v>800.787181073825</v>
       </c>
       <c r="R33" t="n">
-        <v>800.7871810738252</v>
+        <v>800.787181073825</v>
       </c>
       <c r="S33" t="n">
-        <v>800.7871810738252</v>
+        <v>800.787181073825</v>
       </c>
       <c r="T33" t="n">
-        <v>798.7360447531763</v>
+        <v>798.7360447531762</v>
       </c>
       <c r="U33" t="n">
         <v>774.1799492655458</v>
       </c>
       <c r="V33" t="n">
-        <v>746.1680667733621</v>
+        <v>535.5545876626142</v>
       </c>
       <c r="W33" t="n">
-        <v>600.4993385104594</v>
+        <v>481.2238539970877</v>
       </c>
       <c r="X33" t="n">
-        <v>596.059179731338</v>
+        <v>261.7158596137841</v>
       </c>
       <c r="Y33" t="n">
-        <v>370.4184866666656</v>
+        <v>36.07516654911174</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>48.14422439863298</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="C34" t="n">
-        <v>48.14422439863298</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="D34" t="n">
-        <v>48.14422439863298</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="E34" t="n">
-        <v>48.14422439863298</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="F34" t="n">
-        <v>48.14422439863298</v>
+        <v>109.3255388285085</v>
       </c>
       <c r="G34" t="n">
-        <v>48.14422439863298</v>
+        <v>116.7580003597884</v>
       </c>
       <c r="H34" t="n">
-        <v>48.14422439863298</v>
+        <v>116.7580003597884</v>
       </c>
       <c r="I34" t="n">
-        <v>95.87107322179759</v>
+        <v>116.7580003597884</v>
       </c>
       <c r="J34" t="n">
-        <v>95.87107322179759</v>
+        <v>116.7580003597884</v>
       </c>
       <c r="K34" t="n">
-        <v>95.87107322179759</v>
+        <v>116.7580003597884</v>
       </c>
       <c r="L34" t="n">
-        <v>95.87107322179759</v>
+        <v>116.7580003597884</v>
       </c>
       <c r="M34" t="n">
-        <v>95.87107322179759</v>
+        <v>116.7580003597884</v>
       </c>
       <c r="N34" t="n">
-        <v>95.87107322179759</v>
+        <v>116.7580003597884</v>
       </c>
       <c r="O34" t="n">
-        <v>270.2284982810516</v>
+        <v>116.7580003597884</v>
       </c>
       <c r="P34" t="n">
-        <v>270.2284982810516</v>
+        <v>270.2284982810512</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.2284982810516</v>
+        <v>270.2284982810512</v>
       </c>
       <c r="R34" t="n">
-        <v>270.2284982810516</v>
+        <v>270.2284982810512</v>
       </c>
       <c r="S34" t="n">
-        <v>247.5648574270849</v>
+        <v>247.5648574270845</v>
       </c>
       <c r="T34" t="n">
-        <v>236.6316904687925</v>
+        <v>236.6316904687922</v>
       </c>
       <c r="U34" t="n">
-        <v>160.1275115022783</v>
+        <v>160.1275115022781</v>
       </c>
       <c r="V34" t="n">
-        <v>127.6104832837838</v>
+        <v>127.6104832837836</v>
       </c>
       <c r="W34" t="n">
-        <v>49.43518041388985</v>
+        <v>49.43518041388972</v>
       </c>
       <c r="X34" t="n">
-        <v>40.34194994914014</v>
+        <v>40.34194994914007</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>773.6196706102312</v>
+        <v>773.6196706102301</v>
       </c>
       <c r="C35" t="n">
-        <v>670.4759701361766</v>
+        <v>670.4759701361758</v>
       </c>
       <c r="D35" t="n">
-        <v>579.8911966711642</v>
+        <v>579.8911966711635</v>
       </c>
       <c r="E35" t="n">
-        <v>455.2591985400822</v>
+        <v>455.2591985400816</v>
       </c>
       <c r="F35" t="n">
-        <v>298.5864553803362</v>
+        <v>298.5864553803358</v>
       </c>
       <c r="G35" t="n">
-        <v>126.1276587878505</v>
+        <v>126.1276587878504</v>
       </c>
       <c r="H35" t="n">
-        <v>26.31122268722341</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="I35" t="n">
-        <v>33.73340056967336</v>
+        <v>33.73340056967346</v>
       </c>
       <c r="J35" t="n">
-        <v>204.2335233968652</v>
+        <v>204.2335233968654</v>
       </c>
       <c r="K35" t="n">
-        <v>444.5372054429161</v>
+        <v>444.5372054429164</v>
       </c>
       <c r="L35" t="n">
-        <v>738.5467575026498</v>
+        <v>738.5467575026502</v>
       </c>
       <c r="M35" t="n">
-        <v>821.2739835057668</v>
+        <v>821.2739835057671</v>
       </c>
       <c r="N35" t="n">
-        <v>898.4973864972717</v>
+        <v>898.497386497272</v>
       </c>
       <c r="O35" t="n">
-        <v>934.5078973964519</v>
+        <v>934.5078973964522</v>
       </c>
       <c r="P35" t="n">
-        <v>1058.239265802041</v>
+        <v>1157.616275007742</v>
       </c>
       <c r="Q35" t="n">
-        <v>1216.184125155468</v>
+        <v>1315.561134361169</v>
       </c>
       <c r="R35" t="n">
-        <v>1269.531001360109</v>
+        <v>1315.561134361169</v>
       </c>
       <c r="S35" t="n">
-        <v>1290.143552666533</v>
+        <v>1315.561134361169</v>
       </c>
       <c r="T35" t="n">
-        <v>1315.56113436117</v>
+        <v>1315.561134361169</v>
       </c>
       <c r="U35" t="n">
-        <v>1313.483913000719</v>
+        <v>1313.483913000718</v>
       </c>
       <c r="V35" t="n">
-        <v>1239.962145629722</v>
+        <v>1239.962145629721</v>
       </c>
       <c r="W35" t="n">
-        <v>1149.251812383357</v>
+        <v>1149.251812383355</v>
       </c>
       <c r="X35" t="n">
-        <v>1036.434155430992</v>
+        <v>1036.434155430991</v>
       </c>
       <c r="Y35" t="n">
-        <v>900.886343808179</v>
+        <v>900.8863438081778</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>261.5090154665725</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="C36" t="n">
-        <v>261.5090154665725</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="D36" t="n">
-        <v>261.5090154665725</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="E36" t="n">
-        <v>261.5090154665725</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="F36" t="n">
-        <v>261.5090154665725</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="G36" t="n">
-        <v>261.5090154665725</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="H36" t="n">
-        <v>134.5594438728003</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="I36" t="n">
-        <v>26.31122268722341</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="J36" t="n">
-        <v>26.31122268722341</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="K36" t="n">
-        <v>65.19236910701481</v>
+        <v>65.19236910701478</v>
       </c>
       <c r="L36" t="n">
         <v>183.7594110345202</v>
@@ -7035,31 +7035,31 @@
         <v>791.0232372119365</v>
       </c>
       <c r="Q36" t="n">
-        <v>784.8246653722742</v>
+        <v>791.0232372119365</v>
       </c>
       <c r="R36" t="n">
-        <v>649.1041223269457</v>
+        <v>791.0232372119365</v>
       </c>
       <c r="S36" t="n">
-        <v>455.6857894942935</v>
+        <v>791.0232372119365</v>
       </c>
       <c r="T36" t="n">
-        <v>280.3083585626801</v>
+        <v>573.9042652871054</v>
       </c>
       <c r="U36" t="n">
-        <v>280.3083585626801</v>
+        <v>513.8309769443692</v>
       </c>
       <c r="V36" t="n">
-        <v>280.3083585626801</v>
+        <v>270.7512588480033</v>
       </c>
       <c r="W36" t="n">
-        <v>261.5090154665725</v>
+        <v>251.9519157518957</v>
       </c>
       <c r="X36" t="n">
-        <v>261.5090154665725</v>
+        <v>251.9519157518957</v>
       </c>
       <c r="Y36" t="n">
-        <v>261.5090154665725</v>
+        <v>26.31122268722338</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.31122268722341</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="C37" t="n">
-        <v>26.31122268722341</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="D37" t="n">
-        <v>26.31122268722341</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="E37" t="n">
-        <v>26.31122268722341</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="F37" t="n">
-        <v>26.31122268722341</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="G37" t="n">
-        <v>26.31122268722341</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="H37" t="n">
-        <v>26.31122268722341</v>
+        <v>106.9735468446524</v>
       </c>
       <c r="I37" t="n">
-        <v>26.31122268722341</v>
+        <v>106.9735468446524</v>
       </c>
       <c r="J37" t="n">
-        <v>26.31122268722341</v>
+        <v>106.9735468446524</v>
       </c>
       <c r="K37" t="n">
-        <v>26.31122268722341</v>
+        <v>106.9735468446524</v>
       </c>
       <c r="L37" t="n">
-        <v>109.9279233847938</v>
+        <v>106.9735468446524</v>
       </c>
       <c r="M37" t="n">
-        <v>109.9279233847938</v>
+        <v>106.9735468446524</v>
       </c>
       <c r="N37" t="n">
-        <v>109.9279233847938</v>
+        <v>106.9735468446524</v>
       </c>
       <c r="O37" t="n">
-        <v>109.9279233847938</v>
+        <v>106.9735468446524</v>
       </c>
       <c r="P37" t="n">
-        <v>109.9279233847938</v>
+        <v>106.9735468446524</v>
       </c>
       <c r="Q37" t="n">
-        <v>109.9279233847938</v>
+        <v>106.9735468446524</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9279233847938</v>
+        <v>106.9735468446524</v>
       </c>
       <c r="S37" t="n">
-        <v>109.9279233847938</v>
+        <v>106.9735468446524</v>
       </c>
       <c r="T37" t="n">
-        <v>109.9279233847938</v>
+        <v>106.9735468446524</v>
       </c>
       <c r="U37" t="n">
-        <v>68.95513498769847</v>
+        <v>66.00075844755726</v>
       </c>
       <c r="V37" t="n">
-        <v>68.95513498769847</v>
+        <v>68.95513498769833</v>
       </c>
       <c r="W37" t="n">
-        <v>26.31122268722341</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="X37" t="n">
-        <v>26.31122268722341</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.31122268722341</v>
+        <v>26.31122268722338</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>773.619670610231</v>
+        <v>773.6196706102305</v>
       </c>
       <c r="C38" t="n">
-        <v>670.4759701361767</v>
+        <v>670.4759701361763</v>
       </c>
       <c r="D38" t="n">
-        <v>579.8911966711642</v>
+        <v>579.8911966711639</v>
       </c>
       <c r="E38" t="n">
-        <v>455.2591985400823</v>
+        <v>455.2591985400821</v>
       </c>
       <c r="F38" t="n">
         <v>298.5864553803362</v>
       </c>
       <c r="G38" t="n">
-        <v>126.1276587878505</v>
+        <v>126.1276587878504</v>
       </c>
       <c r="H38" t="n">
-        <v>26.31122268722341</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="I38" t="n">
-        <v>33.73340056967336</v>
+        <v>33.73340056967346</v>
       </c>
       <c r="J38" t="n">
-        <v>204.2335233968652</v>
+        <v>204.2335233968654</v>
       </c>
       <c r="K38" t="n">
-        <v>204.2335233968652</v>
+        <v>444.5372054429164</v>
       </c>
       <c r="L38" t="n">
-        <v>252.6307738838525</v>
+        <v>492.9344559299037</v>
       </c>
       <c r="M38" t="n">
-        <v>578.2321546382422</v>
+        <v>575.6616819330206</v>
       </c>
       <c r="N38" t="n">
-        <v>901.0678592024934</v>
+        <v>652.8850849245256</v>
       </c>
       <c r="O38" t="n">
-        <v>937.0783701016736</v>
+        <v>826.0403989248621</v>
       </c>
       <c r="P38" t="n">
-        <v>1132.198693313106</v>
+        <v>1058.239265802039</v>
       </c>
       <c r="Q38" t="n">
-        <v>1290.143552666533</v>
+        <v>1216.184125155467</v>
       </c>
       <c r="R38" t="n">
-        <v>1290.143552666533</v>
+        <v>1269.531001360107</v>
       </c>
       <c r="S38" t="n">
-        <v>1290.143552666533</v>
+        <v>1290.143552666532</v>
       </c>
       <c r="T38" t="n">
-        <v>1315.56113436117</v>
+        <v>1315.561134361169</v>
       </c>
       <c r="U38" t="n">
-        <v>1313.483913000719</v>
+        <v>1313.483913000718</v>
       </c>
       <c r="V38" t="n">
-        <v>1239.962145629722</v>
+        <v>1239.962145629721</v>
       </c>
       <c r="W38" t="n">
-        <v>1149.251812383357</v>
+        <v>1149.251812383356</v>
       </c>
       <c r="X38" t="n">
-        <v>1036.434155430992</v>
+        <v>1036.434155430991</v>
       </c>
       <c r="Y38" t="n">
-        <v>900.8863438081788</v>
+        <v>900.8863438081781</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>187.0913389261917</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="C39" t="n">
-        <v>187.0913389261917</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="D39" t="n">
-        <v>26.31122268722341</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="E39" t="n">
-        <v>26.31122268722341</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="F39" t="n">
-        <v>26.31122268722341</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="G39" t="n">
-        <v>26.31122268722341</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="H39" t="n">
-        <v>26.31122268722341</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="I39" t="n">
-        <v>26.31122268722341</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="J39" t="n">
-        <v>26.31122268722341</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="K39" t="n">
-        <v>65.19236910701481</v>
+        <v>65.19236910701478</v>
       </c>
       <c r="L39" t="n">
         <v>183.7594110345202</v>
@@ -7278,25 +7278,25 @@
         <v>791.0232372119365</v>
       </c>
       <c r="S39" t="n">
-        <v>597.6049043792843</v>
+        <v>791.0232372119365</v>
       </c>
       <c r="T39" t="n">
-        <v>597.6049043792843</v>
+        <v>791.0232372119365</v>
       </c>
       <c r="U39" t="n">
-        <v>448.9704001186652</v>
+        <v>551.3993061201238</v>
       </c>
       <c r="V39" t="n">
-        <v>205.8906820222993</v>
+        <v>551.3993061201238</v>
       </c>
       <c r="W39" t="n">
-        <v>187.0913389261917</v>
+        <v>471.4599101351994</v>
       </c>
       <c r="X39" t="n">
-        <v>187.0913389261917</v>
+        <v>251.9519157518957</v>
       </c>
       <c r="Y39" t="n">
-        <v>187.0913389261917</v>
+        <v>26.31122268722338</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.22326340580967</v>
+        <v>82.86482788338722</v>
       </c>
       <c r="C40" t="n">
-        <v>52.22326340580967</v>
+        <v>82.86482788338722</v>
       </c>
       <c r="D40" t="n">
-        <v>52.22326340580967</v>
+        <v>82.86482788338722</v>
       </c>
       <c r="E40" t="n">
-        <v>52.22326340580967</v>
+        <v>82.86482788338722</v>
       </c>
       <c r="F40" t="n">
-        <v>109.9279233847938</v>
+        <v>82.86482788338722</v>
       </c>
       <c r="G40" t="n">
-        <v>109.9279233847938</v>
+        <v>82.86482788338722</v>
       </c>
       <c r="H40" t="n">
-        <v>109.9279233847938</v>
+        <v>82.86482788338722</v>
       </c>
       <c r="I40" t="n">
-        <v>109.9279233847938</v>
+        <v>82.86482788338722</v>
       </c>
       <c r="J40" t="n">
-        <v>109.9279233847938</v>
+        <v>82.86482788338722</v>
       </c>
       <c r="K40" t="n">
-        <v>109.9279233847938</v>
+        <v>82.86482788338722</v>
       </c>
       <c r="L40" t="n">
-        <v>109.9279233847938</v>
+        <v>82.86482788338722</v>
       </c>
       <c r="M40" t="n">
-        <v>109.9279233847938</v>
+        <v>82.86482788338722</v>
       </c>
       <c r="N40" t="n">
-        <v>109.9279233847938</v>
+        <v>82.86482788338722</v>
       </c>
       <c r="O40" t="n">
-        <v>109.9279233847938</v>
+        <v>82.86482788338722</v>
       </c>
       <c r="P40" t="n">
-        <v>109.9279233847938</v>
+        <v>82.86482788338722</v>
       </c>
       <c r="Q40" t="n">
-        <v>109.9279233847938</v>
+        <v>82.86482788338722</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9279233847938</v>
+        <v>82.86482788338722</v>
       </c>
       <c r="S40" t="n">
-        <v>109.9279233847938</v>
+        <v>82.86482788338722</v>
       </c>
       <c r="T40" t="n">
-        <v>109.9279233847938</v>
+        <v>106.9735468446524</v>
       </c>
       <c r="U40" t="n">
-        <v>68.95513498769847</v>
+        <v>66.00075844755726</v>
       </c>
       <c r="V40" t="n">
-        <v>68.95513498769847</v>
+        <v>68.95513498769833</v>
       </c>
       <c r="W40" t="n">
-        <v>26.31122268722341</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="X40" t="n">
-        <v>52.22326340580967</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="Y40" t="n">
-        <v>52.22326340580967</v>
+        <v>26.31122268722338</v>
       </c>
     </row>
     <row r="41">
@@ -7418,25 +7418,25 @@
         <v>710.7126283788393</v>
       </c>
       <c r="M41" t="n">
-        <v>1025.680439843497</v>
+        <v>1031.629978072253</v>
       </c>
       <c r="N41" t="n">
-        <v>1341.093966525298</v>
+        <v>1108.853381063758</v>
       </c>
       <c r="O41" t="n">
-        <v>1377.104477424478</v>
+        <v>1144.863891962938</v>
       </c>
       <c r="P41" t="n">
-        <v>1377.104477424478</v>
+        <v>1369.640580957665</v>
       </c>
       <c r="Q41" t="n">
-        <v>1377.104477424478</v>
+        <v>1395.099881236666</v>
       </c>
       <c r="R41" t="n">
-        <v>1377.104477424478</v>
+        <v>1395.099881236666</v>
       </c>
       <c r="S41" t="n">
-        <v>1390.294850848453</v>
+        <v>1408.29025466064</v>
       </c>
       <c r="T41" t="n">
         <v>1408.29025466064</v>
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.1658050932128</v>
+        <v>63.28056032702034</v>
       </c>
       <c r="C42" t="n">
-        <v>28.1658050932128</v>
+        <v>63.28056032702034</v>
       </c>
       <c r="D42" t="n">
-        <v>28.1658050932128</v>
+        <v>63.28056032702034</v>
       </c>
       <c r="E42" t="n">
-        <v>28.1658050932128</v>
+        <v>63.28056032702034</v>
       </c>
       <c r="F42" t="n">
-        <v>28.1658050932128</v>
+        <v>63.28056032702034</v>
       </c>
       <c r="G42" t="n">
-        <v>28.1658050932128</v>
+        <v>63.28056032702034</v>
       </c>
       <c r="H42" t="n">
-        <v>28.1658050932128</v>
+        <v>63.28056032702034</v>
       </c>
       <c r="I42" t="n">
-        <v>28.1658050932128</v>
+        <v>63.28056032702034</v>
       </c>
       <c r="J42" t="n">
         <v>28.1658050932128</v>
@@ -7515,25 +7515,25 @@
         <v>792.877819617926</v>
       </c>
       <c r="S42" t="n">
-        <v>599.4594867852738</v>
+        <v>792.877819617926</v>
       </c>
       <c r="T42" t="n">
-        <v>382.3405148604428</v>
+        <v>575.7588476930949</v>
       </c>
       <c r="U42" t="n">
-        <v>142.7165837686302</v>
+        <v>575.7588476930949</v>
       </c>
       <c r="V42" t="n">
-        <v>54.53802634711045</v>
+        <v>332.679129596729</v>
       </c>
       <c r="W42" t="n">
-        <v>28.1658050932128</v>
+        <v>63.28056032702034</v>
       </c>
       <c r="X42" t="n">
-        <v>28.1658050932128</v>
+        <v>63.28056032702034</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.1658050932128</v>
+        <v>63.28056032702034</v>
       </c>
     </row>
     <row r="43">
@@ -7567,25 +7567,25 @@
         <v>28.1658050932128</v>
       </c>
       <c r="J43" t="n">
-        <v>131.4867779132288</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="K43" t="n">
-        <v>131.4867779132288</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="L43" t="n">
-        <v>131.4867779132288</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="M43" t="n">
-        <v>131.4867779132288</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="N43" t="n">
-        <v>131.4867779132288</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="O43" t="n">
-        <v>131.4867779132288</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="P43" t="n">
-        <v>131.4867779132288</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="Q43" t="n">
         <v>131.4867779132288</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>820.9115219629608</v>
+        <v>820.9115219629613</v>
       </c>
       <c r="C44" t="n">
-        <v>710.1949433311165</v>
+        <v>710.194943331117</v>
       </c>
       <c r="D44" t="n">
-        <v>612.0372917083139</v>
+        <v>612.0372917083143</v>
       </c>
       <c r="E44" t="n">
-        <v>479.8324154194415</v>
+        <v>479.8324154194419</v>
       </c>
       <c r="F44" t="n">
-        <v>315.5867941019062</v>
+        <v>315.586794101906</v>
       </c>
       <c r="G44" t="n">
         <v>135.5551193516299</v>
@@ -7655,25 +7655,25 @@
         <v>472.5225046885429</v>
       </c>
       <c r="M44" t="n">
-        <v>604.4563710556016</v>
+        <v>793.4398543819564</v>
       </c>
       <c r="N44" t="n">
-        <v>681.6797740471065</v>
+        <v>1108.853381063758</v>
       </c>
       <c r="O44" t="n">
-        <v>955.8804086365832</v>
+        <v>1383.054015653234</v>
       </c>
       <c r="P44" t="n">
-        <v>1180.657097631311</v>
+        <v>1408.29025466064</v>
       </c>
       <c r="Q44" t="n">
-        <v>1331.179779102288</v>
+        <v>1408.29025466064</v>
       </c>
       <c r="R44" t="n">
-        <v>1377.104477424478</v>
+        <v>1408.29025466064</v>
       </c>
       <c r="S44" t="n">
-        <v>1390.294850848453</v>
+        <v>1408.29025466064</v>
       </c>
       <c r="T44" t="n">
         <v>1408.29025466064</v>
@@ -7691,7 +7691,7 @@
         <v>1098.871763099302</v>
       </c>
       <c r="Y44" t="n">
-        <v>955.7510733186987</v>
+        <v>955.7510733186991</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>194.2870043896818</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="C45" t="n">
-        <v>194.2870043896818</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="D45" t="n">
-        <v>194.2870043896818</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="E45" t="n">
-        <v>194.2870043896818</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="F45" t="n">
-        <v>33.85928810692593</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="G45" t="n">
-        <v>33.85928810692593</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="H45" t="n">
-        <v>33.85928810692593</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="I45" t="n">
-        <v>33.85928810692593</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="J45" t="n">
         <v>28.1658050932128</v>
@@ -7752,25 +7752,25 @@
         <v>657.1572765725975</v>
       </c>
       <c r="S45" t="n">
-        <v>463.7389437399454</v>
+        <v>657.1572765725975</v>
       </c>
       <c r="T45" t="n">
-        <v>463.7389437399454</v>
+        <v>537.241675535289</v>
       </c>
       <c r="U45" t="n">
-        <v>463.7389437399454</v>
+        <v>297.6177444434764</v>
       </c>
       <c r="V45" t="n">
-        <v>463.6855736593905</v>
+        <v>54.53802634711045</v>
       </c>
       <c r="W45" t="n">
-        <v>194.2870043896818</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="X45" t="n">
-        <v>194.2870043896818</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="Y45" t="n">
-        <v>194.2870043896818</v>
+        <v>28.1658050932128</v>
       </c>
     </row>
     <row r="46">
@@ -7783,19 +7783,19 @@
         <v>28.1658050932128</v>
       </c>
       <c r="C46" t="n">
-        <v>37.02747797113601</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="D46" t="n">
-        <v>131.4867779132288</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="E46" t="n">
-        <v>131.4867779132288</v>
+        <v>126.0965489834064</v>
       </c>
       <c r="F46" t="n">
-        <v>131.4867779132288</v>
+        <v>126.0965489834064</v>
       </c>
       <c r="G46" t="n">
-        <v>131.4867779132288</v>
+        <v>126.0965489834064</v>
       </c>
       <c r="H46" t="n">
         <v>131.4867779132288</v>
@@ -8769,22 +8769,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>132.0995883116344</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>238.8597051383721</v>
+        <v>238.8597051383723</v>
       </c>
       <c r="N12" t="n">
-        <v>182.2746605585916</v>
+        <v>135.9824011957681</v>
       </c>
       <c r="O12" t="n">
-        <v>242.8748317222144</v>
+        <v>242.8748317222146</v>
       </c>
       <c r="P12" t="n">
-        <v>120.7977294433386</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9006,19 +9006,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>132.0995883116344</v>
       </c>
       <c r="L15" t="n">
-        <v>234.8671368015993</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>238.8597051383721</v>
+        <v>150.6468851822427</v>
       </c>
       <c r="N15" t="n">
-        <v>224.1952211518975</v>
+        <v>224.1952211518977</v>
       </c>
       <c r="O15" t="n">
-        <v>120.8255334486102</v>
+        <v>242.8748317222146</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
@@ -9249,16 +9249,16 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>196.9391445450662</v>
+        <v>116.810406864768</v>
       </c>
       <c r="N18" t="n">
-        <v>224.1952211518974</v>
+        <v>218.7578141968559</v>
       </c>
       <c r="O18" t="n">
-        <v>242.8748317222144</v>
+        <v>242.8748317222146</v>
       </c>
       <c r="P18" t="n">
-        <v>120.7977294433386</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9480,22 +9480,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>171.373473584151</v>
+        <v>132.0995883116344</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
-        <v>238.8597051383721</v>
+        <v>238.8597051383723</v>
       </c>
       <c r="N21" t="n">
-        <v>224.1952211518974</v>
+        <v>135.9824011957681</v>
       </c>
       <c r="O21" t="n">
-        <v>200.9542711289085</v>
+        <v>242.8748317222146</v>
       </c>
       <c r="P21" t="n">
-        <v>120.7977294433386</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9723,16 +9723,16 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>196.9391445450664</v>
+        <v>238.8597051383723</v>
       </c>
       <c r="N24" t="n">
-        <v>224.1952211518975</v>
+        <v>102.1459228782933</v>
       </c>
       <c r="O24" t="n">
-        <v>242.8748317222145</v>
+        <v>237.4374247671727</v>
       </c>
       <c r="P24" t="n">
-        <v>120.7977294433386</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>179.7047647029785</v>
+        <v>179.7047647029786</v>
       </c>
       <c r="C11" t="n">
-        <v>155.823021706324</v>
+        <v>33.77372343271972</v>
       </c>
       <c r="D11" t="n">
         <v>143.3896839673725</v>
@@ -23270,13 +23270,13 @@
         <v>208.8167739651587</v>
       </c>
       <c r="G11" t="n">
-        <v>102.3956685899674</v>
+        <v>224.4449668635717</v>
       </c>
       <c r="H11" t="n">
-        <v>30.47973170302683</v>
+        <v>39.67234980205765</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>46.21360886079819</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.88999934163192</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>22.51622761819691</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>126.4973079342972</v>
+        <v>126.4973079342973</v>
       </c>
       <c r="W11" t="n">
-        <v>143.5139881509121</v>
+        <v>21.46468987730779</v>
       </c>
       <c r="X11" t="n">
-        <v>165.4002386198513</v>
+        <v>165.4002386198514</v>
       </c>
       <c r="Y11" t="n">
-        <v>65.85379346999088</v>
+        <v>187.9030917435951</v>
       </c>
     </row>
     <row r="12">
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>100.2401760765203</v>
+        <v>179.7047647029786</v>
       </c>
       <c r="C14" t="n">
         <v>155.8230217063241</v>
       </c>
       <c r="D14" t="n">
-        <v>143.3896839673725</v>
+        <v>21.34038569376818</v>
       </c>
       <c r="E14" t="n">
         <v>177.0964363867814</v>
@@ -23507,13 +23507,13 @@
         <v>208.8167739651587</v>
       </c>
       <c r="G14" t="n">
-        <v>102.3956685899675</v>
+        <v>102.3956685899673</v>
       </c>
       <c r="H14" t="n">
         <v>152.5290299766311</v>
       </c>
       <c r="I14" t="n">
-        <v>46.21360886079819</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.88999934163198</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>28.03643329293218</v>
       </c>
       <c r="U14" t="n">
-        <v>55.76720738385725</v>
+        <v>55.76720738385722</v>
       </c>
       <c r="V14" t="n">
-        <v>126.4973079342973</v>
+        <v>98.09989421733675</v>
       </c>
       <c r="W14" t="n">
-        <v>21.46468987730793</v>
+        <v>143.5139881509121</v>
       </c>
       <c r="X14" t="n">
-        <v>165.4002386198514</v>
+        <v>43.35094034624703</v>
       </c>
       <c r="Y14" t="n">
-        <v>65.85379346999093</v>
+        <v>187.9030917435951</v>
       </c>
     </row>
     <row r="15">
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>932205.0487431427</v>
+        <v>932205.0487431426</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>932205.0487431425</v>
+        <v>932205.0487431427</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1071399.566060956</v>
+        <v>1071399.566060957</v>
       </c>
     </row>
     <row r="8">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>551207.4969852874</v>
+        <v>551207.4969852873</v>
       </c>
       <c r="C2" t="n">
-        <v>551207.4969852872</v>
+        <v>551207.4969852873</v>
       </c>
       <c r="D2" t="n">
-        <v>551207.4969852872</v>
+        <v>551207.4969852873</v>
       </c>
       <c r="E2" t="n">
-        <v>474993.8056377996</v>
+        <v>474993.8056377998</v>
       </c>
       <c r="F2" t="n">
-        <v>474993.8056377996</v>
+        <v>474993.8056377998</v>
       </c>
       <c r="G2" t="n">
+        <v>552324.0930365851</v>
+      </c>
+      <c r="H2" t="n">
+        <v>552324.0930365849</v>
+      </c>
+      <c r="I2" t="n">
+        <v>552324.0930365851</v>
+      </c>
+      <c r="J2" t="n">
+        <v>552324.0930365854</v>
+      </c>
+      <c r="K2" t="n">
+        <v>552324.0930365855</v>
+      </c>
+      <c r="L2" t="n">
         <v>552324.0930365848</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
         <v>552324.0930365848</v>
       </c>
-      <c r="I2" t="n">
-        <v>552324.0930365847</v>
-      </c>
-      <c r="J2" t="n">
-        <v>552324.093036585</v>
-      </c>
-      <c r="K2" t="n">
-        <v>552324.0930365851</v>
-      </c>
-      <c r="L2" t="n">
-        <v>552324.0930365853</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>552324.0930365849</v>
-      </c>
-      <c r="N2" t="n">
-        <v>552324.0930365851</v>
       </c>
       <c r="O2" t="n">
         <v>552324.093036585</v>
       </c>
       <c r="P2" t="n">
-        <v>552324.0930365855</v>
+        <v>552324.0930365854</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>275373.0470845677</v>
+        <v>275373.0470845675</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>101197.8463474378</v>
       </c>
       <c r="M3" t="n">
-        <v>28140.86133097981</v>
+        <v>28140.86133097985</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>68716.99883240163</v>
+        <v>68716.99883240164</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,22 +26427,22 @@
         <v>349734.5238460589</v>
       </c>
       <c r="F4" t="n">
-        <v>349734.5238460589</v>
+        <v>349734.523846059</v>
       </c>
       <c r="G4" t="n">
-        <v>420238.0338746421</v>
+        <v>420238.0338746422</v>
       </c>
       <c r="H4" t="n">
-        <v>420238.0338746422</v>
+        <v>420238.0338746423</v>
       </c>
       <c r="I4" t="n">
-        <v>420238.0338746422</v>
+        <v>420238.0338746423</v>
       </c>
       <c r="J4" t="n">
-        <v>419094.788274104</v>
+        <v>419094.7882741042</v>
       </c>
       <c r="K4" t="n">
-        <v>419094.7882741041</v>
+        <v>419094.7882741042</v>
       </c>
       <c r="L4" t="n">
         <v>419094.7882741041</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60903.24590949211</v>
+        <v>60898.77952528681</v>
       </c>
       <c r="C6" t="n">
-        <v>60903.24590949188</v>
+        <v>60898.77952528681</v>
       </c>
       <c r="D6" t="n">
-        <v>60903.24590949188</v>
+        <v>60898.77952528681</v>
       </c>
       <c r="E6" t="n">
-        <v>-176139.6275561753</v>
+        <v>-176448.94870577</v>
       </c>
       <c r="F6" t="n">
-        <v>99233.41952839246</v>
+        <v>98924.09837879738</v>
       </c>
       <c r="G6" t="n">
-        <v>-5772.151629571854</v>
+        <v>-5772.151629571628</v>
       </c>
       <c r="H6" t="n">
         <v>95425.69471786584</v>
       </c>
       <c r="I6" t="n">
-        <v>95425.69471786573</v>
+        <v>95425.69471786614</v>
       </c>
       <c r="J6" t="n">
-        <v>-69539.32769911442</v>
+        <v>-69539.32769911436</v>
       </c>
       <c r="K6" t="n">
-        <v>85648.72111165841</v>
+        <v>85648.7211116587</v>
       </c>
       <c r="L6" t="n">
-        <v>-15549.12523577931</v>
+        <v>-15549.12523577976</v>
       </c>
       <c r="M6" t="n">
-        <v>62512.79542662105</v>
+        <v>62512.79542662088</v>
       </c>
       <c r="N6" t="n">
-        <v>90653.65675760107</v>
+        <v>90653.65675760085</v>
       </c>
       <c r="O6" t="n">
         <v>21057.35979382588</v>
       </c>
       <c r="P6" t="n">
-        <v>89774.35862622797</v>
+        <v>89774.35862622785</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>194.3824756748548</v>
       </c>
       <c r="F2" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="G2" t="n">
         <v>320.879783609152</v>
@@ -26713,13 +26713,13 @@
         <v>212.9171572481403</v>
       </c>
       <c r="L2" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="M2" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="N2" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="O2" t="n">
         <v>240.5960845356529</v>
@@ -26744,28 +26744,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.8405771010908</v>
+        <v>103.8405771010906</v>
       </c>
       <c r="F3" t="n">
-        <v>103.8405771010908</v>
+        <v>103.8405771010906</v>
       </c>
       <c r="G3" t="n">
-        <v>103.8405771010908</v>
+        <v>103.8405771010906</v>
       </c>
       <c r="H3" t="n">
-        <v>103.8405771010908</v>
+        <v>103.8405771010906</v>
       </c>
       <c r="I3" t="n">
-        <v>103.8405771010908</v>
+        <v>103.8405771010906</v>
       </c>
       <c r="J3" t="n">
-        <v>103.8405771010908</v>
+        <v>103.8405771010906</v>
       </c>
       <c r="K3" t="n">
-        <v>103.8405771010908</v>
+        <v>103.8405771010906</v>
       </c>
       <c r="L3" t="n">
-        <v>103.8405771010908</v>
+        <v>103.8405771010907</v>
       </c>
       <c r="M3" t="n">
         <v>103.8405771010907</v>
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.0492982736042</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="F4" t="n">
-        <v>122.0492982736042</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="G4" t="n">
-        <v>122.0492982736042</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="H4" t="n">
-        <v>122.0492982736042</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="I4" t="n">
         <v>122.0492982736043</v>
       </c>
       <c r="J4" t="n">
-        <v>450.9395818638968</v>
+        <v>450.9395818638966</v>
       </c>
       <c r="K4" t="n">
-        <v>450.9395818638968</v>
+        <v>450.9395818638966</v>
       </c>
       <c r="L4" t="n">
-        <v>450.9395818638968</v>
+        <v>450.9395818638966</v>
       </c>
       <c r="M4" t="n">
-        <v>328.8902835902926</v>
+        <v>328.8902835902923</v>
       </c>
       <c r="N4" t="n">
-        <v>328.8902835902926</v>
+        <v>328.8902835902923</v>
       </c>
       <c r="O4" t="n">
         <v>352.07256366516</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.41984931384297</v>
+        <v>86.41984931384303</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>126.4973079342973</v>
       </c>
       <c r="M2" t="n">
-        <v>35.17607666372476</v>
+        <v>35.17607666372481</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>78.92269993763088</v>
+        <v>78.92269993763082</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.8405771010908</v>
+        <v>103.8405771010906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.0492982736042</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>328.8902835902925</v>
+        <v>328.8902835902924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.18228007486744</v>
+        <v>23.18228007486772</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>86.41984931384297</v>
+        <v>86.41984931384303</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>122.0492982736042</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,10 +28111,10 @@
         <v>194.3824756748548</v>
       </c>
       <c r="J11" t="n">
-        <v>194.3824756748548</v>
+        <v>84.2563616743828</v>
       </c>
       <c r="K11" t="n">
-        <v>5.362241946156978</v>
+        <v>5.36224194615707</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28129,7 +28129,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>25.47210820804928</v>
+        <v>135.5982222085227</v>
       </c>
       <c r="Q11" t="n">
         <v>194.3824756748548</v>
@@ -28178,19 +28178,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>36.77414084632412</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>148.7388631915159</v>
       </c>
       <c r="H12" t="n">
-        <v>125.6800758778345</v>
+        <v>3.630777604230147</v>
       </c>
       <c r="I12" t="n">
         <v>107.1657389737211</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>51.93274503525226</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,16 +28211,16 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.136586121265662</v>
       </c>
       <c r="R12" t="n">
-        <v>134.3633376148752</v>
+        <v>16.69504415153449</v>
       </c>
       <c r="S12" t="n">
         <v>191.4841495043256</v>
       </c>
       <c r="T12" t="n">
-        <v>134.783513368032</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="U12" t="n">
         <v>194.3824756748548</v>
@@ -28251,13 +28251,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="G13" t="n">
         <v>168.6959616282545</v>
@@ -28266,28 +28266,28 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I13" t="n">
-        <v>164.7082190429235</v>
+        <v>164.7082190429236</v>
       </c>
       <c r="J13" t="n">
-        <v>194.3824756748548</v>
+        <v>119.8993073508208</v>
       </c>
       <c r="K13" t="n">
-        <v>66.47076232176846</v>
+        <v>164.9656707978705</v>
       </c>
       <c r="L13" t="n">
-        <v>153.4855082474395</v>
+        <v>153.4855082474396</v>
       </c>
       <c r="M13" t="n">
-        <v>146.5116571916057</v>
+        <v>24.46235891800155</v>
       </c>
       <c r="N13" t="n">
-        <v>75.10778658774572</v>
+        <v>15.78359136610015</v>
       </c>
       <c r="O13" t="n">
-        <v>36.79854607717667</v>
+        <v>36.79854607717671</v>
       </c>
       <c r="P13" t="n">
-        <v>57.89645227716782</v>
+        <v>57.89645227716787</v>
       </c>
       <c r="Q13" t="n">
         <v>126.8139378168763</v>
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="C14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="D14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="E14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="F14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="G14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="H14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="I14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="J14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="K14" t="n">
-        <v>5.362241946156978</v>
+        <v>17.28542621928943</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28366,34 +28366,34 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>25.47210820804951</v>
+        <v>13.54892393491831</v>
       </c>
       <c r="Q14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="R14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="S14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="T14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="U14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="V14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="W14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="X14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="Y14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
     </row>
     <row r="15">
@@ -28406,7 +28406,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>65.4688532507617</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28424,10 +28424,10 @@
         <v>125.6800758778345</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J15" t="n">
-        <v>51.93274503525222</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>129.9973692465217</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S15" t="n">
-        <v>191.4841495043256</v>
+        <v>69.43485123072131</v>
       </c>
       <c r="T15" t="n">
-        <v>194.3824756748547</v>
+        <v>134.783513368032</v>
       </c>
       <c r="U15" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="V15" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="W15" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="X15" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="Y15" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
     </row>
     <row r="16">
@@ -28488,70 +28488,70 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="E16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="F16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="G16" t="n">
-        <v>168.6959616282545</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="H16" t="n">
-        <v>191.4270386783794</v>
+        <v>165.7816030517371</v>
       </c>
       <c r="I16" t="n">
-        <v>164.7082190429235</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="J16" t="n">
         <v>119.8993073508208</v>
       </c>
       <c r="K16" t="n">
-        <v>66.47076232176846</v>
+        <v>66.4707623217685</v>
       </c>
       <c r="L16" t="n">
-        <v>153.4855082474395</v>
+        <v>31.43620997383531</v>
       </c>
       <c r="M16" t="n">
-        <v>24.4623589180015</v>
+        <v>24.46235891800155</v>
       </c>
       <c r="N16" t="n">
-        <v>137.8328896397043</v>
+        <v>113.3984895792964</v>
       </c>
       <c r="O16" t="n">
-        <v>36.79854607717667</v>
+        <v>36.79854607717671</v>
       </c>
       <c r="P16" t="n">
-        <v>57.89645227716782</v>
+        <v>57.89645227716787</v>
       </c>
       <c r="Q16" t="n">
-        <v>126.8139378168763</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="R16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="S16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="T16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="U16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="V16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="W16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="X16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="Y16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
     </row>
     <row r="17">
@@ -28582,13 +28582,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="I17" t="n">
-        <v>307.8443607092407</v>
+        <v>320.879783609152</v>
       </c>
       <c r="J17" t="n">
-        <v>75.87088762177223</v>
+        <v>75.8708876217723</v>
       </c>
       <c r="K17" t="n">
-        <v>5.362241946156978</v>
+        <v>5.36224194615707</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,10 +28603,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.54892393491821</v>
+        <v>13.54892393491831</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.55297193870594</v>
+        <v>88.55297193870601</v>
       </c>
       <c r="R17" t="n">
         <v>194.2075003718244</v>
@@ -28615,7 +28615,7 @@
         <v>227.2724750164867</v>
       </c>
       <c r="T17" t="n">
-        <v>320.879783609152</v>
+        <v>307.8443607092418</v>
       </c>
       <c r="U17" t="n">
         <v>320.879783609152</v>
@@ -28640,19 +28640,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>60.50249929965749</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>37.12301680297419</v>
       </c>
       <c r="E18" t="n">
-        <v>49.77827356619547</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>36.77414084632399</v>
       </c>
       <c r="G18" t="n">
         <v>148.7388631915159</v>
@@ -28661,10 +28661,10 @@
         <v>125.6800758778345</v>
       </c>
       <c r="I18" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>51.93274503525222</v>
+        <v>51.93274503525226</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,25 +28685,25 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.136586121265609</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>134.3633376148752</v>
       </c>
       <c r="S18" t="n">
-        <v>69.43485123072143</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T18" t="n">
         <v>214.9477822055827</v>
       </c>
       <c r="U18" t="n">
-        <v>129.7266698615039</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>144.6552853034074</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
@@ -28740,28 +28740,28 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I19" t="n">
-        <v>164.7082190429235</v>
+        <v>164.7082190429236</v>
       </c>
       <c r="J19" t="n">
         <v>119.8993073508208</v>
       </c>
       <c r="K19" t="n">
-        <v>66.47076232176846</v>
+        <v>66.4707623217685</v>
       </c>
       <c r="L19" t="n">
-        <v>31.43620997383526</v>
+        <v>31.43620997383531</v>
       </c>
       <c r="M19" t="n">
-        <v>24.4623589180015</v>
+        <v>24.46235891800155</v>
       </c>
       <c r="N19" t="n">
-        <v>15.7835913661001</v>
+        <v>15.78359136610015</v>
       </c>
       <c r="O19" t="n">
-        <v>36.79854607717667</v>
+        <v>36.79854607717671</v>
       </c>
       <c r="P19" t="n">
-        <v>57.89645227716782</v>
+        <v>57.89645227716787</v>
       </c>
       <c r="Q19" t="n">
         <v>126.8139378168763</v>
@@ -28819,43 +28819,43 @@
         <v>320.8797836091521</v>
       </c>
       <c r="I20" t="n">
+        <v>240.5960845356529</v>
+      </c>
+      <c r="J20" t="n">
+        <v>75.8708876217723</v>
+      </c>
+      <c r="K20" t="n">
+        <v>5.36224194615707</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>13.54892393491831</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>88.55297193870601</v>
+      </c>
+      <c r="R20" t="n">
+        <v>316.2567986454287</v>
+      </c>
+      <c r="S20" t="n">
         <v>320.8797836091521</v>
       </c>
-      <c r="J20" t="n">
-        <v>75.87088762177223</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5.362241946156978</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>13.54892393491821</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>88.55297193870594</v>
-      </c>
-      <c r="R20" t="n">
-        <v>194.2075003718244</v>
-      </c>
-      <c r="S20" t="n">
-        <v>227.2724750164867</v>
-      </c>
       <c r="T20" t="n">
-        <v>307.8443607092406</v>
+        <v>222.4189089677869</v>
       </c>
       <c r="U20" t="n">
-        <v>320.8797836091521</v>
+        <v>270.9323275578362</v>
       </c>
       <c r="V20" t="n">
         <v>320.8797836091521</v>
@@ -28880,10 +28880,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>65.46885325076171</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>37.12301680297433</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -28892,13 +28892,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7388631915159</v>
+        <v>26.68956491791157</v>
       </c>
       <c r="H21" t="n">
-        <v>125.6800758778345</v>
+        <v>3.630777604230133</v>
       </c>
       <c r="I21" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>12.314039341271</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S21" t="n">
-        <v>142.0524587414529</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T21" t="n">
         <v>214.9477822055827</v>
@@ -28937,7 +28937,7 @@
         <v>237.2276917808945</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>176.3336708526463</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
@@ -28977,28 +28977,28 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I22" t="n">
-        <v>164.7082190429235</v>
+        <v>164.7082190429236</v>
       </c>
       <c r="J22" t="n">
         <v>119.8993073508208</v>
       </c>
       <c r="K22" t="n">
-        <v>66.47076232176846</v>
+        <v>66.4707623217685</v>
       </c>
       <c r="L22" t="n">
-        <v>31.43620997383526</v>
+        <v>31.43620997383531</v>
       </c>
       <c r="M22" t="n">
-        <v>24.4623589180015</v>
+        <v>24.46235891800155</v>
       </c>
       <c r="N22" t="n">
-        <v>15.7835913661001</v>
+        <v>15.78359136610015</v>
       </c>
       <c r="O22" t="n">
-        <v>36.79854607717667</v>
+        <v>36.79854607717671</v>
       </c>
       <c r="P22" t="n">
-        <v>57.89645227716782</v>
+        <v>57.89645227716787</v>
       </c>
       <c r="Q22" t="n">
         <v>126.8139378168763</v>
@@ -29059,13 +29059,13 @@
         <v>320.8797836091521</v>
       </c>
       <c r="J23" t="n">
-        <v>75.87088762177223</v>
+        <v>197.9201858953766</v>
       </c>
       <c r="K23" t="n">
-        <v>88.35460756746431</v>
+        <v>5.36224194615707</v>
       </c>
       <c r="L23" t="n">
-        <v>73.16318667058677</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29077,10 +29077,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.54892393491821</v>
+        <v>13.54892393491831</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.55297193870594</v>
+        <v>122.6592259569963</v>
       </c>
       <c r="R23" t="n">
         <v>194.2075003718244</v>
@@ -29095,7 +29095,7 @@
         <v>250.149683058712</v>
       </c>
       <c r="V23" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
         <v>320.8797836091521</v>
@@ -29117,28 +29117,28 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>65.46885325076161</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>37.12301680297423</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>64.32654992040905</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>36.77414084632403</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>148.7388631915159</v>
       </c>
       <c r="H24" t="n">
-        <v>125.6800758778345</v>
+        <v>3.630777604230175</v>
       </c>
       <c r="I24" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>51.93274503525222</v>
+        <v>51.93274503525226</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,10 +29159,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.136586121265609</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>134.3633376148752</v>
+        <v>18.1153425168671</v>
       </c>
       <c r="S24" t="n">
         <v>191.4841495043256</v>
@@ -29180,7 +29180,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>95.2636161658663</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29214,28 +29214,28 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I25" t="n">
-        <v>164.7082190429235</v>
+        <v>164.7082190429236</v>
       </c>
       <c r="J25" t="n">
         <v>119.8993073508208</v>
       </c>
       <c r="K25" t="n">
-        <v>66.47076232176846</v>
+        <v>66.4707623217685</v>
       </c>
       <c r="L25" t="n">
-        <v>31.43620997383526</v>
+        <v>31.43620997383531</v>
       </c>
       <c r="M25" t="n">
-        <v>24.4623589180015</v>
+        <v>24.46235891800155</v>
       </c>
       <c r="N25" t="n">
-        <v>15.7835913661001</v>
+        <v>15.78359136610015</v>
       </c>
       <c r="O25" t="n">
-        <v>36.79854607717667</v>
+        <v>36.79854607717671</v>
       </c>
       <c r="P25" t="n">
-        <v>57.89645227716782</v>
+        <v>57.89645227716787</v>
       </c>
       <c r="Q25" t="n">
         <v>126.8139378168763</v>
@@ -29354,7 +29354,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29375,7 +29375,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J27" t="n">
-        <v>51.93274503525222</v>
+        <v>51.93274503525226</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.136586121265662</v>
       </c>
       <c r="R27" t="n">
         <v>134.3633376148752</v>
@@ -29408,16 +29408,16 @@
         <v>212.9171572481403</v>
       </c>
       <c r="U27" t="n">
-        <v>10.54639904976571</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>212.9171572481403</v>
+        <v>191.9279644528663</v>
       </c>
       <c r="Y27" t="n">
         <v>212.9171572481403</v>
@@ -29430,19 +29430,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>212.9171572481403</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>212.9171572481403</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>212.9171572481403</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>212.9171572481403</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>154.7096632267115</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
         <v>168.6959616282545</v>
@@ -29451,31 +29451,31 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I28" t="n">
-        <v>164.7082190429235</v>
+        <v>164.7082190429236</v>
       </c>
       <c r="J28" t="n">
         <v>119.8993073508208</v>
       </c>
       <c r="K28" t="n">
-        <v>66.47076232176846</v>
+        <v>66.4707623217685</v>
       </c>
       <c r="L28" t="n">
-        <v>31.43620997383526</v>
+        <v>31.43620997383531</v>
       </c>
       <c r="M28" t="n">
-        <v>24.4623589180015</v>
+        <v>24.46235891800155</v>
       </c>
       <c r="N28" t="n">
-        <v>15.7835913661001</v>
+        <v>15.78359136610015</v>
       </c>
       <c r="O28" t="n">
-        <v>36.79854607717667</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="P28" t="n">
-        <v>57.89645227716782</v>
+        <v>57.89645227716787</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.8139378168763</v>
+        <v>187.2138435468618</v>
       </c>
       <c r="R28" t="n">
         <v>203.2135377342752</v>
@@ -29542,7 +29542,7 @@
         <v>212.9171572481403</v>
       </c>
       <c r="M29" t="n">
-        <v>212.9171572481398</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="N29" t="n">
         <v>212.9171572481403</v>
@@ -29591,7 +29591,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29603,16 +29603,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H30" t="n">
-        <v>40.51258902593571</v>
+        <v>125.6800758778345</v>
       </c>
       <c r="I30" t="n">
         <v>107.1657389737211</v>
       </c>
       <c r="J30" t="n">
-        <v>51.93274503525222</v>
+        <v>51.93274503525226</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,22 +29633,22 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.136586121265609</v>
+        <v>6.136586121265662</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3633376148752</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>191.4841495043256</v>
+        <v>117.3401427995609</v>
       </c>
       <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
         <v>212.9171572481403</v>
-      </c>
-      <c r="U30" t="n">
-        <v>212.9171572481403</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>212.9171572481403</v>
@@ -29670,10 +29670,10 @@
         <v>212.9171572481403</v>
       </c>
       <c r="C31" t="n">
-        <v>212.9171572481403</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>212.9171572481403</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
         <v>141.676141212225</v>
@@ -29685,37 +29685,37 @@
         <v>168.6959616282545</v>
       </c>
       <c r="H31" t="n">
-        <v>212.9171572481403</v>
+        <v>165.7816030517371</v>
       </c>
       <c r="I31" t="n">
-        <v>164.7082190429235</v>
+        <v>164.7082190429236</v>
       </c>
       <c r="J31" t="n">
         <v>119.8993073508208</v>
       </c>
       <c r="K31" t="n">
-        <v>66.47076232176846</v>
+        <v>66.4707623217685</v>
       </c>
       <c r="L31" t="n">
-        <v>71.32445282161166</v>
+        <v>31.43620997383531</v>
       </c>
       <c r="M31" t="n">
-        <v>24.4623589180015</v>
+        <v>24.46235891800155</v>
       </c>
       <c r="N31" t="n">
-        <v>15.7835913661001</v>
+        <v>15.78359136610015</v>
       </c>
       <c r="O31" t="n">
-        <v>36.79854607717667</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="P31" t="n">
-        <v>57.89645227716782</v>
+        <v>57.89645227716787</v>
       </c>
       <c r="Q31" t="n">
-        <v>126.8139378168763</v>
+        <v>142.2099874498244</v>
       </c>
       <c r="R31" t="n">
-        <v>203.2135377342752</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="S31" t="n">
         <v>212.9171572481403</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="C32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="D32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="E32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="F32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="G32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="H32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="I32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="J32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="K32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481393</v>
       </c>
       <c r="L32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="M32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="N32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="O32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="P32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="R32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="S32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="T32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="U32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="V32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="W32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="X32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
     </row>
     <row r="33">
@@ -29831,10 +29831,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
@@ -29849,7 +29849,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J33" t="n">
-        <v>51.93274503525222</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.136586121265609</v>
+        <v>6.136586121265633</v>
       </c>
       <c r="R33" t="n">
         <v>134.3633376148752</v>
@@ -29879,19 +29879,19 @@
         <v>191.4841495043256</v>
       </c>
       <c r="T33" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="U33" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="V33" t="n">
-        <v>212.9171572481403</v>
+        <v>4.409812928499917</v>
       </c>
       <c r="W33" t="n">
-        <v>122.492542596738</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="X33" t="n">
-        <v>212.9171572481403</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.807888189737</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
         <v>166.4571809719723</v>
@@ -29916,37 +29916,37 @@
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="G34" t="n">
-        <v>168.6959616282545</v>
+        <v>176.2034985285372</v>
       </c>
       <c r="H34" t="n">
         <v>165.7816030517371</v>
       </c>
       <c r="I34" t="n">
-        <v>212.9171572481403</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J34" t="n">
         <v>119.8993073508208</v>
       </c>
       <c r="K34" t="n">
-        <v>66.47076232176846</v>
+        <v>66.47076232176849</v>
       </c>
       <c r="L34" t="n">
-        <v>31.43620997383526</v>
+        <v>31.43620997383529</v>
       </c>
       <c r="M34" t="n">
-        <v>24.4623589180015</v>
+        <v>24.46235891800152</v>
       </c>
       <c r="N34" t="n">
-        <v>15.7835913661001</v>
+        <v>15.78359136610012</v>
       </c>
       <c r="O34" t="n">
-        <v>212.9171572481403</v>
+        <v>36.79854607717668</v>
       </c>
       <c r="P34" t="n">
-        <v>57.89645227716782</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="Q34" t="n">
         <v>126.8139378168763</v>
@@ -29955,25 +29955,25 @@
         <v>203.2135377342752</v>
       </c>
       <c r="S34" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="T34" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="U34" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="V34" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="W34" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="X34" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
     </row>
     <row r="35">
@@ -29983,37 +29983,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="C35" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="D35" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="E35" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="F35" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="G35" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="H35" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="I35" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="J35" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="K35" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="L35" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30025,34 +30025,34 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>138.5301041425838</v>
+        <v>238.9109215220793</v>
       </c>
       <c r="Q35" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="R35" t="n">
-        <v>248.093233911865</v>
+        <v>194.2075003718244</v>
       </c>
       <c r="S35" t="n">
-        <v>248.093233911865</v>
+        <v>227.2724750164867</v>
       </c>
       <c r="T35" t="n">
-        <v>248.093233911865</v>
+        <v>222.4189089677869</v>
       </c>
       <c r="U35" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="V35" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="W35" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="X35" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="Y35" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
     </row>
     <row r="36">
@@ -30080,10 +30080,10 @@
         <v>148.7388631915159</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>125.6800758778345</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J36" t="n">
         <v>51.93274503525224</v>
@@ -30107,31 +30107,31 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.136586121265633</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T36" t="n">
-        <v>41.32412558328539</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2276917808945</v>
+        <v>177.7551363215856</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30159,7 +30159,7 @@
         <v>168.6959616282545</v>
       </c>
       <c r="H37" t="n">
-        <v>165.7816030517371</v>
+        <v>247.2586981602513</v>
       </c>
       <c r="I37" t="n">
         <v>164.7082190429235</v>
@@ -30171,7 +30171,7 @@
         <v>66.47076232176849</v>
       </c>
       <c r="L37" t="n">
-        <v>115.8975238097649</v>
+        <v>31.43620997383529</v>
       </c>
       <c r="M37" t="n">
         <v>24.46235891800152</v>
@@ -30198,13 +30198,13 @@
         <v>223.7409925368498</v>
       </c>
       <c r="U37" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="V37" t="n">
-        <v>245.1090151844499</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="W37" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="C38" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="D38" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="E38" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="F38" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="G38" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="H38" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="I38" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="J38" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="K38" t="n">
-        <v>5.36224194615702</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>245.3274290416896</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>248.093233911865</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>138.5301041425821</v>
       </c>
       <c r="P38" t="n">
-        <v>210.6401595020213</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="Q38" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="R38" t="n">
-        <v>194.2075003718244</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="S38" t="n">
-        <v>227.2724750164867</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="T38" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="U38" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="V38" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="W38" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="X38" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="Y38" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
     </row>
     <row r="39">
@@ -30305,7 +30305,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
@@ -30350,25 +30350,25 @@
         <v>134.3633376148752</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T39" t="n">
         <v>214.9477822055827</v>
       </c>
       <c r="U39" t="n">
-        <v>90.07953256288155</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>248.093233911865</v>
+        <v>187.5645815519364</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>177.6169206649681</v>
+        <v>234.7417743984669</v>
       </c>
       <c r="C40" t="n">
         <v>166.4571809719723</v>
@@ -30390,7 +30390,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>197.2144175507538</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
         <v>168.6959616282545</v>
@@ -30432,19 +30432,19 @@
         <v>235.3541616935673</v>
       </c>
       <c r="T40" t="n">
-        <v>223.7409925368498</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="U40" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="V40" t="n">
-        <v>245.1090151844499</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="W40" t="n">
-        <v>248.093233911865</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="X40" t="n">
-        <v>248.093233911865</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
         <v>217.1412728141684</v>
@@ -30490,19 +30490,19 @@
         <v>240.5960845356529</v>
       </c>
       <c r="M41" t="n">
-        <v>234.5864499611523</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>240.5960845356529</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>13.54892393491825</v>
-      </c>
       <c r="Q41" t="n">
-        <v>88.55297193870598</v>
+        <v>114.2694368669895</v>
       </c>
       <c r="R41" t="n">
         <v>194.2075003718244</v>
@@ -30511,7 +30511,7 @@
         <v>240.5960845356529</v>
       </c>
       <c r="T41" t="n">
-        <v>240.5960845356529</v>
+        <v>222.4189089677869</v>
       </c>
       <c r="U41" t="n">
         <v>240.5960845356529</v>
@@ -30560,7 +30560,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J42" t="n">
-        <v>51.93274503525224</v>
+        <v>17.16913735378278</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30587,19 +30587,19 @@
         <v>134.3633376148752</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V42" t="n">
-        <v>153.3521490680977</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>240.5960845356529</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30639,7 +30639,7 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J43" t="n">
-        <v>224.2639263609379</v>
+        <v>119.8993073508208</v>
       </c>
       <c r="K43" t="n">
         <v>66.47076232176849</v>
@@ -30660,7 +30660,7 @@
         <v>57.89645227716784</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.8139378168763</v>
+        <v>231.1785568269934</v>
       </c>
       <c r="R43" t="n">
         <v>203.2135377342752</v>
@@ -30727,28 +30727,28 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>49.70367713529468</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="O44" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="P44" t="n">
-        <v>240.5960845356529</v>
+        <v>39.0400744474494</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.5960845356529</v>
+        <v>88.55297193870597</v>
       </c>
       <c r="R44" t="n">
-        <v>240.5960845356529</v>
+        <v>194.2075003718244</v>
       </c>
       <c r="S44" t="n">
-        <v>240.5960845356529</v>
+        <v>227.2724750164867</v>
       </c>
       <c r="T44" t="n">
-        <v>240.5960845356529</v>
+        <v>222.4189089677869</v>
       </c>
       <c r="U44" t="n">
         <v>240.5960845356529</v>
@@ -30785,7 +30785,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>148.7388631915159</v>
@@ -30797,7 +30797,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J45" t="n">
-        <v>46.29619685167624</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30824,19 +30824,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9477822055827</v>
+        <v>96.23133717864724</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2276917808945</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
         <v>240.5960845356529</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30855,13 +30855,13 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
-        <v>175.4083656971473</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
+        <v>145.1826502507107</v>
+      </c>
+      <c r="E46" t="n">
         <v>240.5960845356529</v>
-      </c>
-      <c r="E46" t="n">
-        <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
         <v>138.9268822184467</v>
@@ -30870,7 +30870,7 @@
         <v>168.6959616282545</v>
       </c>
       <c r="H46" t="n">
-        <v>165.7816030517371</v>
+        <v>171.2262787384264</v>
       </c>
       <c r="I46" t="n">
         <v>164.7082190429235</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4174495561852894</v>
+        <v>0.4174495561852887</v>
       </c>
       <c r="H11" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282589</v>
       </c>
       <c r="I11" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483336</v>
       </c>
       <c r="J11" t="n">
-        <v>35.43050926928124</v>
+        <v>35.43050926928117</v>
       </c>
       <c r="K11" t="n">
-        <v>53.10114898260455</v>
+        <v>53.10114898260446</v>
       </c>
       <c r="L11" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083770999</v>
       </c>
       <c r="M11" t="n">
-        <v>73.30048938252025</v>
+        <v>73.30048938252011</v>
       </c>
       <c r="N11" t="n">
-        <v>74.48656793403171</v>
+        <v>74.48656793403158</v>
       </c>
       <c r="O11" t="n">
-        <v>70.33555390971424</v>
+        <v>70.33555390971411</v>
       </c>
       <c r="P11" t="n">
-        <v>60.02976799138989</v>
+        <v>60.02976799138978</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.0798557605042</v>
+        <v>45.07985576050412</v>
       </c>
       <c r="R11" t="n">
-        <v>26.22261568372421</v>
+        <v>26.22261568372416</v>
       </c>
       <c r="S11" t="n">
-        <v>9.512631761572292</v>
+        <v>9.512631761572274</v>
       </c>
       <c r="T11" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201102</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03339596449482315</v>
+        <v>0.03339596449482309</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2233552035759312</v>
+        <v>0.2233552035759308</v>
       </c>
       <c r="H12" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062279</v>
       </c>
       <c r="I12" t="n">
-        <v>7.690080473995877</v>
+        <v>7.690080473995864</v>
       </c>
       <c r="J12" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749617</v>
       </c>
       <c r="K12" t="n">
-        <v>36.0669672370836</v>
+        <v>36.06696723708353</v>
       </c>
       <c r="L12" t="n">
-        <v>48.49648839046699</v>
+        <v>48.49648839046691</v>
       </c>
       <c r="M12" t="n">
-        <v>56.59311452009449</v>
+        <v>56.59311452009439</v>
       </c>
       <c r="N12" t="n">
-        <v>58.09096586337344</v>
+        <v>58.09096586337333</v>
       </c>
       <c r="O12" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361192</v>
       </c>
       <c r="P12" t="n">
-        <v>42.65104760214427</v>
+        <v>42.65104760214419</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.51109581085045</v>
+        <v>28.5110958108504</v>
       </c>
       <c r="R12" t="n">
-        <v>13.86761518342493</v>
+        <v>13.8676151834249</v>
       </c>
       <c r="S12" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614326</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9002782109047399</v>
+        <v>0.9002782109047383</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01469442128789022</v>
+        <v>0.01469442128789019</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904913</v>
       </c>
       <c r="H13" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702733</v>
       </c>
       <c r="I13" t="n">
-        <v>5.631223427055877</v>
+        <v>5.631223427055867</v>
       </c>
       <c r="J13" t="n">
-        <v>13.23882242811776</v>
+        <v>13.23882242811773</v>
       </c>
       <c r="K13" t="n">
-        <v>21.75545205494984</v>
+        <v>21.7554520549498</v>
       </c>
       <c r="L13" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034813</v>
       </c>
       <c r="M13" t="n">
-        <v>29.35283722875588</v>
+        <v>29.35283722875582</v>
       </c>
       <c r="N13" t="n">
-        <v>28.65489236627316</v>
+        <v>28.65489236627311</v>
       </c>
       <c r="O13" t="n">
-        <v>26.46743102897968</v>
+        <v>26.46743102897963</v>
       </c>
       <c r="P13" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529359</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.67992714226471</v>
+        <v>15.67992714226468</v>
       </c>
       <c r="R13" t="n">
-        <v>8.419598267901558</v>
+        <v>8.419598267901542</v>
       </c>
       <c r="S13" t="n">
-        <v>3.263317808242475</v>
+        <v>3.26331780824247</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8000831350411912</v>
+        <v>0.8000831350411898</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584499</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4174495561852894</v>
+        <v>0.4174495561852887</v>
       </c>
       <c r="H14" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282589</v>
       </c>
       <c r="I14" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483336</v>
       </c>
       <c r="J14" t="n">
-        <v>35.43050926928124</v>
+        <v>35.43050926928117</v>
       </c>
       <c r="K14" t="n">
-        <v>53.10114898260455</v>
+        <v>53.10114898260446</v>
       </c>
       <c r="L14" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083770999</v>
       </c>
       <c r="M14" t="n">
-        <v>73.30048938252025</v>
+        <v>73.30048938252011</v>
       </c>
       <c r="N14" t="n">
-        <v>74.48656793403171</v>
+        <v>74.48656793403158</v>
       </c>
       <c r="O14" t="n">
-        <v>70.33555390971424</v>
+        <v>70.33555390971411</v>
       </c>
       <c r="P14" t="n">
-        <v>60.02976799138989</v>
+        <v>60.02976799138978</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.0798557605042</v>
+        <v>45.07985576050412</v>
       </c>
       <c r="R14" t="n">
-        <v>26.22261568372421</v>
+        <v>26.22261568372416</v>
       </c>
       <c r="S14" t="n">
-        <v>9.512631761572292</v>
+        <v>9.512631761572274</v>
       </c>
       <c r="T14" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201102</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03339596449482315</v>
+        <v>0.03339596449482309</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2233552035759312</v>
+        <v>0.2233552035759308</v>
       </c>
       <c r="H15" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062279</v>
       </c>
       <c r="I15" t="n">
-        <v>7.690080473995877</v>
+        <v>7.690080473995864</v>
       </c>
       <c r="J15" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749617</v>
       </c>
       <c r="K15" t="n">
-        <v>36.0669672370836</v>
+        <v>36.06696723708353</v>
       </c>
       <c r="L15" t="n">
-        <v>48.49648839046699</v>
+        <v>48.49648839046691</v>
       </c>
       <c r="M15" t="n">
-        <v>56.59311452009449</v>
+        <v>56.59311452009439</v>
       </c>
       <c r="N15" t="n">
-        <v>58.09096586337344</v>
+        <v>58.09096586337333</v>
       </c>
       <c r="O15" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361192</v>
       </c>
       <c r="P15" t="n">
-        <v>42.65104760214427</v>
+        <v>42.65104760214419</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.51109581085045</v>
+        <v>28.5110958108504</v>
       </c>
       <c r="R15" t="n">
-        <v>13.86761518342493</v>
+        <v>13.8676151834249</v>
       </c>
       <c r="S15" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614326</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9002782109047399</v>
+        <v>0.9002782109047383</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01469442128789022</v>
+        <v>0.01469442128789019</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904913</v>
       </c>
       <c r="H16" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702733</v>
       </c>
       <c r="I16" t="n">
-        <v>5.631223427055877</v>
+        <v>5.631223427055867</v>
       </c>
       <c r="J16" t="n">
-        <v>13.23882242811776</v>
+        <v>13.23882242811773</v>
       </c>
       <c r="K16" t="n">
-        <v>21.75545205494984</v>
+        <v>21.7554520549498</v>
       </c>
       <c r="L16" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034813</v>
       </c>
       <c r="M16" t="n">
-        <v>29.35283722875588</v>
+        <v>29.35283722875582</v>
       </c>
       <c r="N16" t="n">
-        <v>28.65489236627316</v>
+        <v>28.65489236627311</v>
       </c>
       <c r="O16" t="n">
-        <v>26.46743102897968</v>
+        <v>26.46743102897963</v>
       </c>
       <c r="P16" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529359</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.67992714226471</v>
+        <v>15.67992714226468</v>
       </c>
       <c r="R16" t="n">
-        <v>8.419598267901558</v>
+        <v>8.419598267901542</v>
       </c>
       <c r="S16" t="n">
-        <v>3.263317808242475</v>
+        <v>3.26331780824247</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8000831350411912</v>
+        <v>0.8000831350411898</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584499</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4174495561852894</v>
+        <v>0.4174495561852887</v>
       </c>
       <c r="H17" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282589</v>
       </c>
       <c r="I17" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483336</v>
       </c>
       <c r="J17" t="n">
-        <v>35.43050926928124</v>
+        <v>35.43050926928117</v>
       </c>
       <c r="K17" t="n">
-        <v>53.10114898260455</v>
+        <v>53.10114898260446</v>
       </c>
       <c r="L17" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083770999</v>
       </c>
       <c r="M17" t="n">
-        <v>73.30048938252025</v>
+        <v>73.30048938252011</v>
       </c>
       <c r="N17" t="n">
-        <v>74.48656793403171</v>
+        <v>74.48656793403158</v>
       </c>
       <c r="O17" t="n">
-        <v>70.33555390971424</v>
+        <v>70.33555390971411</v>
       </c>
       <c r="P17" t="n">
-        <v>60.02976799138989</v>
+        <v>60.02976799138978</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.0798557605042</v>
+        <v>45.07985576050412</v>
       </c>
       <c r="R17" t="n">
-        <v>26.22261568372421</v>
+        <v>26.22261568372416</v>
       </c>
       <c r="S17" t="n">
-        <v>9.512631761572292</v>
+        <v>9.512631761572274</v>
       </c>
       <c r="T17" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201102</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03339596449482315</v>
+        <v>0.03339596449482309</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2233552035759312</v>
+        <v>0.2233552035759308</v>
       </c>
       <c r="H18" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062279</v>
       </c>
       <c r="I18" t="n">
-        <v>7.690080473995877</v>
+        <v>7.690080473995864</v>
       </c>
       <c r="J18" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749617</v>
       </c>
       <c r="K18" t="n">
-        <v>36.0669672370836</v>
+        <v>36.06696723708353</v>
       </c>
       <c r="L18" t="n">
-        <v>48.49648839046699</v>
+        <v>48.49648839046691</v>
       </c>
       <c r="M18" t="n">
-        <v>56.59311452009449</v>
+        <v>56.59311452009439</v>
       </c>
       <c r="N18" t="n">
-        <v>58.09096586337344</v>
+        <v>58.09096586337333</v>
       </c>
       <c r="O18" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361192</v>
       </c>
       <c r="P18" t="n">
-        <v>42.65104760214427</v>
+        <v>42.65104760214419</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.51109581085045</v>
+        <v>28.5110958108504</v>
       </c>
       <c r="R18" t="n">
-        <v>13.86761518342493</v>
+        <v>13.8676151834249</v>
       </c>
       <c r="S18" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614326</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9002782109047399</v>
+        <v>0.9002782109047383</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01469442128789022</v>
+        <v>0.01469442128789019</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904913</v>
       </c>
       <c r="H19" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702733</v>
       </c>
       <c r="I19" t="n">
-        <v>5.631223427055877</v>
+        <v>5.631223427055867</v>
       </c>
       <c r="J19" t="n">
-        <v>13.23882242811776</v>
+        <v>13.23882242811773</v>
       </c>
       <c r="K19" t="n">
-        <v>21.75545205494984</v>
+        <v>21.7554520549498</v>
       </c>
       <c r="L19" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034813</v>
       </c>
       <c r="M19" t="n">
-        <v>29.35283722875588</v>
+        <v>29.35283722875582</v>
       </c>
       <c r="N19" t="n">
-        <v>28.65489236627316</v>
+        <v>28.65489236627311</v>
       </c>
       <c r="O19" t="n">
-        <v>26.46743102897968</v>
+        <v>26.46743102897963</v>
       </c>
       <c r="P19" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529359</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.67992714226471</v>
+        <v>15.67992714226468</v>
       </c>
       <c r="R19" t="n">
-        <v>8.419598267901558</v>
+        <v>8.419598267901542</v>
       </c>
       <c r="S19" t="n">
-        <v>3.263317808242475</v>
+        <v>3.26331780824247</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8000831350411912</v>
+        <v>0.8000831350411898</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584499</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4174495561852894</v>
+        <v>0.4174495561852887</v>
       </c>
       <c r="H20" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282589</v>
       </c>
       <c r="I20" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483336</v>
       </c>
       <c r="J20" t="n">
-        <v>35.43050926928124</v>
+        <v>35.43050926928117</v>
       </c>
       <c r="K20" t="n">
-        <v>53.10114898260455</v>
+        <v>53.10114898260446</v>
       </c>
       <c r="L20" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083770999</v>
       </c>
       <c r="M20" t="n">
-        <v>73.30048938252025</v>
+        <v>73.30048938252011</v>
       </c>
       <c r="N20" t="n">
-        <v>74.48656793403171</v>
+        <v>74.48656793403158</v>
       </c>
       <c r="O20" t="n">
-        <v>70.33555390971424</v>
+        <v>70.33555390971411</v>
       </c>
       <c r="P20" t="n">
-        <v>60.02976799138989</v>
+        <v>60.02976799138978</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.0798557605042</v>
+        <v>45.07985576050412</v>
       </c>
       <c r="R20" t="n">
-        <v>26.22261568372421</v>
+        <v>26.22261568372416</v>
       </c>
       <c r="S20" t="n">
-        <v>9.512631761572292</v>
+        <v>9.512631761572274</v>
       </c>
       <c r="T20" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201102</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03339596449482315</v>
+        <v>0.03339596449482309</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2233552035759312</v>
+        <v>0.2233552035759308</v>
       </c>
       <c r="H21" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062279</v>
       </c>
       <c r="I21" t="n">
-        <v>7.690080473995877</v>
+        <v>7.690080473995864</v>
       </c>
       <c r="J21" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749617</v>
       </c>
       <c r="K21" t="n">
-        <v>36.0669672370836</v>
+        <v>36.06696723708353</v>
       </c>
       <c r="L21" t="n">
-        <v>48.49648839046699</v>
+        <v>48.49648839046691</v>
       </c>
       <c r="M21" t="n">
-        <v>56.59311452009449</v>
+        <v>56.59311452009439</v>
       </c>
       <c r="N21" t="n">
-        <v>58.09096586337344</v>
+        <v>58.09096586337333</v>
       </c>
       <c r="O21" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361192</v>
       </c>
       <c r="P21" t="n">
-        <v>42.65104760214427</v>
+        <v>42.65104760214419</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.51109581085045</v>
+        <v>28.5110958108504</v>
       </c>
       <c r="R21" t="n">
-        <v>13.86761518342493</v>
+        <v>13.8676151834249</v>
       </c>
       <c r="S21" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614326</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9002782109047399</v>
+        <v>0.9002782109047383</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01469442128789022</v>
+        <v>0.01469442128789019</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904913</v>
       </c>
       <c r="H22" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702733</v>
       </c>
       <c r="I22" t="n">
-        <v>5.631223427055877</v>
+        <v>5.631223427055867</v>
       </c>
       <c r="J22" t="n">
-        <v>13.23882242811776</v>
+        <v>13.23882242811773</v>
       </c>
       <c r="K22" t="n">
-        <v>21.75545205494984</v>
+        <v>21.7554520549498</v>
       </c>
       <c r="L22" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034813</v>
       </c>
       <c r="M22" t="n">
-        <v>29.35283722875588</v>
+        <v>29.35283722875582</v>
       </c>
       <c r="N22" t="n">
-        <v>28.65489236627316</v>
+        <v>28.65489236627311</v>
       </c>
       <c r="O22" t="n">
-        <v>26.46743102897968</v>
+        <v>26.46743102897963</v>
       </c>
       <c r="P22" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529359</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.67992714226471</v>
+        <v>15.67992714226468</v>
       </c>
       <c r="R22" t="n">
-        <v>8.419598267901558</v>
+        <v>8.419598267901542</v>
       </c>
       <c r="S22" t="n">
-        <v>3.263317808242475</v>
+        <v>3.26331780824247</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8000831350411912</v>
+        <v>0.8000831350411898</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584499</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4174495561852894</v>
+        <v>0.4174495561852887</v>
       </c>
       <c r="H23" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282589</v>
       </c>
       <c r="I23" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483336</v>
       </c>
       <c r="J23" t="n">
-        <v>35.43050926928124</v>
+        <v>35.43050926928117</v>
       </c>
       <c r="K23" t="n">
-        <v>53.10114898260455</v>
+        <v>53.10114898260446</v>
       </c>
       <c r="L23" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083770999</v>
       </c>
       <c r="M23" t="n">
-        <v>73.30048938252025</v>
+        <v>73.30048938252011</v>
       </c>
       <c r="N23" t="n">
-        <v>74.48656793403171</v>
+        <v>74.48656793403158</v>
       </c>
       <c r="O23" t="n">
-        <v>70.33555390971424</v>
+        <v>70.33555390971411</v>
       </c>
       <c r="P23" t="n">
-        <v>60.02976799138989</v>
+        <v>60.02976799138978</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.0798557605042</v>
+        <v>45.07985576050412</v>
       </c>
       <c r="R23" t="n">
-        <v>26.22261568372421</v>
+        <v>26.22261568372416</v>
       </c>
       <c r="S23" t="n">
-        <v>9.512631761572292</v>
+        <v>9.512631761572274</v>
       </c>
       <c r="T23" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201102</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03339596449482315</v>
+        <v>0.03339596449482309</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2233552035759312</v>
+        <v>0.2233552035759308</v>
       </c>
       <c r="H24" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062279</v>
       </c>
       <c r="I24" t="n">
-        <v>7.690080473995877</v>
+        <v>7.690080473995864</v>
       </c>
       <c r="J24" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749617</v>
       </c>
       <c r="K24" t="n">
-        <v>36.0669672370836</v>
+        <v>36.06696723708353</v>
       </c>
       <c r="L24" t="n">
-        <v>48.49648839046699</v>
+        <v>48.49648839046691</v>
       </c>
       <c r="M24" t="n">
-        <v>56.59311452009449</v>
+        <v>56.59311452009439</v>
       </c>
       <c r="N24" t="n">
-        <v>58.09096586337344</v>
+        <v>58.09096586337333</v>
       </c>
       <c r="O24" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361192</v>
       </c>
       <c r="P24" t="n">
-        <v>42.65104760214427</v>
+        <v>42.65104760214419</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.51109581085045</v>
+        <v>28.5110958108504</v>
       </c>
       <c r="R24" t="n">
-        <v>13.86761518342493</v>
+        <v>13.8676151834249</v>
       </c>
       <c r="S24" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614326</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9002782109047399</v>
+        <v>0.9002782109047383</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01469442128789022</v>
+        <v>0.01469442128789019</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904913</v>
       </c>
       <c r="H25" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702733</v>
       </c>
       <c r="I25" t="n">
-        <v>5.631223427055877</v>
+        <v>5.631223427055867</v>
       </c>
       <c r="J25" t="n">
-        <v>13.23882242811776</v>
+        <v>13.23882242811773</v>
       </c>
       <c r="K25" t="n">
-        <v>21.75545205494984</v>
+        <v>21.7554520549498</v>
       </c>
       <c r="L25" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034813</v>
       </c>
       <c r="M25" t="n">
-        <v>29.35283722875588</v>
+        <v>29.35283722875582</v>
       </c>
       <c r="N25" t="n">
-        <v>28.65489236627316</v>
+        <v>28.65489236627311</v>
       </c>
       <c r="O25" t="n">
-        <v>26.46743102897968</v>
+        <v>26.46743102897963</v>
       </c>
       <c r="P25" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529359</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.67992714226471</v>
+        <v>15.67992714226468</v>
       </c>
       <c r="R25" t="n">
-        <v>8.419598267901558</v>
+        <v>8.419598267901542</v>
       </c>
       <c r="S25" t="n">
-        <v>3.263317808242475</v>
+        <v>3.26331780824247</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8000831350411912</v>
+        <v>0.8000831350411898</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584499</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4174495561852894</v>
+        <v>0.4174495561852887</v>
       </c>
       <c r="H26" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282589</v>
       </c>
       <c r="I26" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483336</v>
       </c>
       <c r="J26" t="n">
-        <v>35.43050926928124</v>
+        <v>35.43050926928117</v>
       </c>
       <c r="K26" t="n">
-        <v>53.10114898260455</v>
+        <v>53.10114898260446</v>
       </c>
       <c r="L26" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083770999</v>
       </c>
       <c r="M26" t="n">
-        <v>73.30048938252025</v>
+        <v>73.30048938252011</v>
       </c>
       <c r="N26" t="n">
-        <v>74.48656793403171</v>
+        <v>74.48656793403158</v>
       </c>
       <c r="O26" t="n">
-        <v>70.33555390971424</v>
+        <v>70.33555390971411</v>
       </c>
       <c r="P26" t="n">
-        <v>60.02976799138989</v>
+        <v>60.02976799138978</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.0798557605042</v>
+        <v>45.07985576050412</v>
       </c>
       <c r="R26" t="n">
-        <v>26.22261568372421</v>
+        <v>26.22261568372416</v>
       </c>
       <c r="S26" t="n">
-        <v>9.512631761572292</v>
+        <v>9.512631761572274</v>
       </c>
       <c r="T26" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201102</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03339596449482315</v>
+        <v>0.03339596449482309</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2233552035759312</v>
+        <v>0.2233552035759308</v>
       </c>
       <c r="H27" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062279</v>
       </c>
       <c r="I27" t="n">
-        <v>7.690080473995877</v>
+        <v>7.690080473995864</v>
       </c>
       <c r="J27" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749617</v>
       </c>
       <c r="K27" t="n">
-        <v>36.0669672370836</v>
+        <v>36.06696723708353</v>
       </c>
       <c r="L27" t="n">
-        <v>48.49648839046699</v>
+        <v>48.49648839046691</v>
       </c>
       <c r="M27" t="n">
-        <v>56.59311452009449</v>
+        <v>56.59311452009439</v>
       </c>
       <c r="N27" t="n">
-        <v>58.09096586337344</v>
+        <v>58.09096586337333</v>
       </c>
       <c r="O27" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361192</v>
       </c>
       <c r="P27" t="n">
-        <v>42.65104760214427</v>
+        <v>42.65104760214419</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.51109581085045</v>
+        <v>28.5110958108504</v>
       </c>
       <c r="R27" t="n">
-        <v>13.86761518342493</v>
+        <v>13.8676151834249</v>
       </c>
       <c r="S27" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614326</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9002782109047399</v>
+        <v>0.9002782109047383</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01469442128789022</v>
+        <v>0.01469442128789019</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904913</v>
       </c>
       <c r="H28" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702733</v>
       </c>
       <c r="I28" t="n">
-        <v>5.631223427055877</v>
+        <v>5.631223427055867</v>
       </c>
       <c r="J28" t="n">
-        <v>13.23882242811776</v>
+        <v>13.23882242811773</v>
       </c>
       <c r="K28" t="n">
-        <v>21.75545205494984</v>
+        <v>21.7554520549498</v>
       </c>
       <c r="L28" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034813</v>
       </c>
       <c r="M28" t="n">
-        <v>29.35283722875588</v>
+        <v>29.35283722875582</v>
       </c>
       <c r="N28" t="n">
-        <v>28.65489236627316</v>
+        <v>28.65489236627311</v>
       </c>
       <c r="O28" t="n">
-        <v>26.46743102897968</v>
+        <v>26.46743102897963</v>
       </c>
       <c r="P28" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529359</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.67992714226471</v>
+        <v>15.67992714226468</v>
       </c>
       <c r="R28" t="n">
-        <v>8.419598267901558</v>
+        <v>8.419598267901542</v>
       </c>
       <c r="S28" t="n">
-        <v>3.263317808242475</v>
+        <v>3.26331780824247</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8000831350411912</v>
+        <v>0.8000831350411898</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584499</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4174495561852894</v>
+        <v>0.4174495561852887</v>
       </c>
       <c r="H29" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282589</v>
       </c>
       <c r="I29" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483336</v>
       </c>
       <c r="J29" t="n">
-        <v>35.43050926928124</v>
+        <v>35.43050926928117</v>
       </c>
       <c r="K29" t="n">
-        <v>53.10114898260455</v>
+        <v>53.10114898260446</v>
       </c>
       <c r="L29" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083770999</v>
       </c>
       <c r="M29" t="n">
-        <v>73.30048938252025</v>
+        <v>73.30048938252011</v>
       </c>
       <c r="N29" t="n">
-        <v>74.48656793403171</v>
+        <v>74.48656793403158</v>
       </c>
       <c r="O29" t="n">
-        <v>70.33555390971424</v>
+        <v>70.33555390971411</v>
       </c>
       <c r="P29" t="n">
-        <v>60.02976799138989</v>
+        <v>60.02976799138978</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.0798557605042</v>
+        <v>45.07985576050412</v>
       </c>
       <c r="R29" t="n">
-        <v>26.22261568372421</v>
+        <v>26.22261568372416</v>
       </c>
       <c r="S29" t="n">
-        <v>9.512631761572292</v>
+        <v>9.512631761572274</v>
       </c>
       <c r="T29" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201102</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03339596449482315</v>
+        <v>0.03339596449482309</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2233552035759312</v>
+        <v>0.2233552035759308</v>
       </c>
       <c r="H30" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062279</v>
       </c>
       <c r="I30" t="n">
-        <v>7.690080473995877</v>
+        <v>7.690080473995864</v>
       </c>
       <c r="J30" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749617</v>
       </c>
       <c r="K30" t="n">
-        <v>36.0669672370836</v>
+        <v>36.06696723708353</v>
       </c>
       <c r="L30" t="n">
-        <v>48.49648839046699</v>
+        <v>48.49648839046691</v>
       </c>
       <c r="M30" t="n">
-        <v>56.59311452009449</v>
+        <v>56.59311452009439</v>
       </c>
       <c r="N30" t="n">
-        <v>58.09096586337344</v>
+        <v>58.09096586337333</v>
       </c>
       <c r="O30" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361192</v>
       </c>
       <c r="P30" t="n">
-        <v>42.65104760214427</v>
+        <v>42.65104760214419</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.51109581085045</v>
+        <v>28.5110958108504</v>
       </c>
       <c r="R30" t="n">
-        <v>13.86761518342493</v>
+        <v>13.8676151834249</v>
       </c>
       <c r="S30" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614326</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9002782109047399</v>
+        <v>0.9002782109047383</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01469442128789022</v>
+        <v>0.01469442128789019</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904913</v>
       </c>
       <c r="H31" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702733</v>
       </c>
       <c r="I31" t="n">
-        <v>5.631223427055877</v>
+        <v>5.631223427055867</v>
       </c>
       <c r="J31" t="n">
-        <v>13.23882242811776</v>
+        <v>13.23882242811773</v>
       </c>
       <c r="K31" t="n">
-        <v>21.75545205494984</v>
+        <v>21.7554520549498</v>
       </c>
       <c r="L31" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034813</v>
       </c>
       <c r="M31" t="n">
-        <v>29.35283722875588</v>
+        <v>29.35283722875582</v>
       </c>
       <c r="N31" t="n">
-        <v>28.65489236627316</v>
+        <v>28.65489236627311</v>
       </c>
       <c r="O31" t="n">
-        <v>26.46743102897968</v>
+        <v>26.46743102897963</v>
       </c>
       <c r="P31" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529359</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.67992714226471</v>
+        <v>15.67992714226468</v>
       </c>
       <c r="R31" t="n">
-        <v>8.419598267901558</v>
+        <v>8.419598267901542</v>
       </c>
       <c r="S31" t="n">
-        <v>3.263317808242475</v>
+        <v>3.26331780824247</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8000831350411912</v>
+        <v>0.8000831350411898</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584499</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4174495561852894</v>
+        <v>0.4174495561852891</v>
       </c>
       <c r="H32" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282592</v>
       </c>
       <c r="I32" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483337</v>
       </c>
       <c r="J32" t="n">
-        <v>35.43050926928124</v>
+        <v>35.43050926928121</v>
       </c>
       <c r="K32" t="n">
-        <v>53.10114898260455</v>
+        <v>53.10114898260451</v>
       </c>
       <c r="L32" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083771005</v>
       </c>
       <c r="M32" t="n">
-        <v>73.30048938252025</v>
+        <v>73.30048938252018</v>
       </c>
       <c r="N32" t="n">
-        <v>74.48656793403171</v>
+        <v>74.48656793403165</v>
       </c>
       <c r="O32" t="n">
-        <v>70.33555390971424</v>
+        <v>70.33555390971418</v>
       </c>
       <c r="P32" t="n">
-        <v>60.02976799138989</v>
+        <v>60.02976799138985</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.0798557605042</v>
+        <v>45.07985576050417</v>
       </c>
       <c r="R32" t="n">
-        <v>26.22261568372421</v>
+        <v>26.22261568372419</v>
       </c>
       <c r="S32" t="n">
-        <v>9.512631761572292</v>
+        <v>9.512631761572283</v>
       </c>
       <c r="T32" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03339596449482315</v>
+        <v>0.03339596449482312</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2233552035759312</v>
+        <v>0.223355203575931</v>
       </c>
       <c r="H33" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062281</v>
       </c>
       <c r="I33" t="n">
-        <v>7.690080473995877</v>
+        <v>7.690080473995871</v>
       </c>
       <c r="J33" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749619</v>
       </c>
       <c r="K33" t="n">
-        <v>36.0669672370836</v>
+        <v>36.06696723708356</v>
       </c>
       <c r="L33" t="n">
-        <v>48.49648839046699</v>
+        <v>48.49648839046696</v>
       </c>
       <c r="M33" t="n">
-        <v>56.59311452009449</v>
+        <v>56.59311452009444</v>
       </c>
       <c r="N33" t="n">
-        <v>58.09096586337344</v>
+        <v>58.09096586337339</v>
       </c>
       <c r="O33" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361197</v>
       </c>
       <c r="P33" t="n">
-        <v>42.65104760214427</v>
+        <v>42.65104760214423</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.51109581085045</v>
+        <v>28.51109581085042</v>
       </c>
       <c r="R33" t="n">
-        <v>13.86761518342493</v>
+        <v>13.86761518342492</v>
       </c>
       <c r="S33" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614329</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9002782109047399</v>
+        <v>0.9002782109047391</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01469442128789022</v>
+        <v>0.0146944212878902</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904915</v>
       </c>
       <c r="H34" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702734</v>
       </c>
       <c r="I34" t="n">
-        <v>5.631223427055877</v>
+        <v>5.631223427055872</v>
       </c>
       <c r="J34" t="n">
-        <v>13.23882242811776</v>
+        <v>13.23882242811774</v>
       </c>
       <c r="K34" t="n">
-        <v>21.75545205494984</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L34" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034816</v>
       </c>
       <c r="M34" t="n">
-        <v>29.35283722875588</v>
+        <v>29.35283722875585</v>
       </c>
       <c r="N34" t="n">
-        <v>28.65489236627316</v>
+        <v>28.65489236627313</v>
       </c>
       <c r="O34" t="n">
-        <v>26.46743102897968</v>
+        <v>26.46743102897966</v>
       </c>
       <c r="P34" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529361</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.67992714226471</v>
+        <v>15.6799271422647</v>
       </c>
       <c r="R34" t="n">
-        <v>8.419598267901558</v>
+        <v>8.41959826790155</v>
       </c>
       <c r="S34" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242473</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8000831350411912</v>
+        <v>0.8000831350411906</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>118.5115880530826</v>
+        <v>8.385474052610499</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>48.88611160301754</v>
+        <v>48.88611160301743</v>
       </c>
       <c r="M11" t="n">
-        <v>83.56285454860301</v>
+        <v>83.56285454860287</v>
       </c>
       <c r="N11" t="n">
-        <v>78.00343736515651</v>
+        <v>78.00343736515639</v>
       </c>
       <c r="O11" t="n">
-        <v>36.37425343351541</v>
+        <v>36.37425343351528</v>
       </c>
       <c r="P11" t="n">
-        <v>11.92318427313107</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="Q11" t="n">
-        <v>105.8295037361489</v>
+        <v>105.8295037361488</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1749753030304433</v>
+        <v>0.1749753030303687</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.2738852725166</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>119.764688815662</v>
+        <v>119.7646888156619</v>
       </c>
       <c r="M12" t="n">
-        <v>122.0492982736042</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="N12" t="n">
-        <v>80.12873768029836</v>
+        <v>33.83647831747474</v>
       </c>
       <c r="O12" t="n">
-        <v>122.0492982736042</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>85.56614463534058</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35547,13 +35547,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>49.19982542414405</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>52.70633446262977</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>55.45559345640811</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.48316832403403</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>98.49490847610197</v>
       </c>
       <c r="L13" t="n">
-        <v>122.0492982736042</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="M13" t="n">
-        <v>122.0492982736042</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>59.32419522164562</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>118.5115880530825</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>11.92318427313236</v>
       </c>
       <c r="L14" t="n">
-        <v>48.88611160301754</v>
+        <v>48.88611160301743</v>
       </c>
       <c r="M14" t="n">
-        <v>83.56285454860301</v>
+        <v>83.56285454860287</v>
       </c>
       <c r="N14" t="n">
-        <v>78.00343736515651</v>
+        <v>78.00343736515639</v>
       </c>
       <c r="O14" t="n">
-        <v>36.37425343351541</v>
+        <v>36.37425343351528</v>
       </c>
       <c r="P14" t="n">
-        <v>11.9231842731313</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>105.8295037361488</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1749753030303864</v>
+        <v>0.1749753030303687</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.2738852725166</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>114.3272818606197</v>
+        <v>119.7646888156619</v>
       </c>
       <c r="M15" t="n">
-        <v>122.0492982736042</v>
+        <v>33.83647831747474</v>
       </c>
       <c r="N15" t="n">
-        <v>122.0492982736042</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="P15" t="n">
-        <v>85.56614463534066</v>
+        <v>85.56614463534058</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35784,22 +35784,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>49.19982542414405</v>
       </c>
       <c r="E16" t="n">
-        <v>52.70633446262974</v>
+        <v>52.70633446262977</v>
       </c>
       <c r="F16" t="n">
-        <v>55.45559345640808</v>
+        <v>55.45559345640811</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>25.68651404660029</v>
       </c>
       <c r="H16" t="n">
-        <v>25.64543562664229</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>29.67425663193121</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -35808,13 +35808,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>122.0492982736042</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>122.0492982736042</v>
+        <v>97.6148982131963</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>67.56853785797847</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>67.24827617358775</v>
+        <v>80.28369907349906</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35887,16 +35887,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>48.88611160301754</v>
+        <v>48.88611160301743</v>
       </c>
       <c r="M17" t="n">
-        <v>83.56285454860301</v>
+        <v>83.56285454860287</v>
       </c>
       <c r="N17" t="n">
-        <v>78.00343736515651</v>
+        <v>78.00343736515639</v>
       </c>
       <c r="O17" t="n">
-        <v>36.37425343351541</v>
+        <v>36.37425343351528</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35911,7 +35911,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>98.46087464136508</v>
+        <v>85.42545174145479</v>
       </c>
       <c r="U17" t="n">
         <v>70.73010055044004</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.2738852725166</v>
+        <v>39.27388527251654</v>
       </c>
       <c r="L18" t="n">
-        <v>119.764688815662</v>
+        <v>119.7646888156619</v>
       </c>
       <c r="M18" t="n">
-        <v>80.12873768029833</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>122.0492982736042</v>
+        <v>116.6118913185626</v>
       </c>
       <c r="O18" t="n">
-        <v>122.0492982736042</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>85.56614463534058</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>80.28369907349915</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36124,16 +36124,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>48.88611160301754</v>
+        <v>48.88611160301743</v>
       </c>
       <c r="M20" t="n">
-        <v>83.56285454860301</v>
+        <v>83.56285454860287</v>
       </c>
       <c r="N20" t="n">
-        <v>78.00343736515651</v>
+        <v>78.00343736515639</v>
       </c>
       <c r="O20" t="n">
-        <v>36.37425343351541</v>
+        <v>36.37425343351528</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36142,16 +36142,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>93.60730859266535</v>
       </c>
       <c r="T20" t="n">
-        <v>85.42545174145364</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>70.7301005504401</v>
+        <v>20.78264449912425</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>39.2738852725166</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>119.764688815662</v>
+        <v>119.7646888156619</v>
       </c>
       <c r="M21" t="n">
-        <v>122.0492982736042</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="N21" t="n">
-        <v>122.0492982736042</v>
+        <v>33.83647831747476</v>
       </c>
       <c r="O21" t="n">
-        <v>80.1287376802983</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>85.56614463534058</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>80.28369907349915</v>
+        <v>80.28369907349912</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="K23" t="n">
-        <v>82.99236562130734</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>122.0492982736043</v>
+        <v>48.88611160301743</v>
       </c>
       <c r="M23" t="n">
-        <v>83.56285454860301</v>
+        <v>83.56285454860287</v>
       </c>
       <c r="N23" t="n">
-        <v>78.00343736515651</v>
+        <v>78.00343736515639</v>
       </c>
       <c r="O23" t="n">
-        <v>36.37425343351541</v>
+        <v>36.37425343351528</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>34.1062540182903</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>39.2738852725166</v>
+        <v>39.27388527251654</v>
       </c>
       <c r="L24" t="n">
-        <v>119.764688815662</v>
+        <v>119.7646888156619</v>
       </c>
       <c r="M24" t="n">
-        <v>80.1287376802985</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="N24" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>122.0492982736043</v>
+        <v>116.6118913185624</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>85.56614463534058</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36601,13 +36601,13 @@
         <v>261.8032688511578</v>
       </c>
       <c r="M26" t="n">
-        <v>296.4800117967433</v>
+        <v>296.4800117967432</v>
       </c>
       <c r="N26" t="n">
-        <v>290.9205946132968</v>
+        <v>290.9205946132967</v>
       </c>
       <c r="O26" t="n">
-        <v>249.2914106816557</v>
+        <v>249.2914106816556</v>
       </c>
       <c r="P26" t="n">
         <v>199.368233313222</v>
@@ -36616,7 +36616,7 @@
         <v>124.3641853094343</v>
       </c>
       <c r="R26" t="n">
-        <v>18.7096568763159</v>
+        <v>18.70965687631596</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.2738852725166</v>
+        <v>39.27388527251654</v>
       </c>
       <c r="L27" t="n">
-        <v>119.764688815662</v>
+        <v>119.7646888156619</v>
       </c>
       <c r="M27" t="n">
-        <v>184.9664744452321</v>
+        <v>184.966474445232</v>
       </c>
       <c r="N27" t="n">
-        <v>208.4679356963294</v>
+        <v>208.4679356963293</v>
       </c>
       <c r="O27" t="n">
-        <v>134.3972494427106</v>
+        <v>134.3972494427105</v>
       </c>
       <c r="P27" t="n">
-        <v>85.56614463534066</v>
+        <v>85.56614463534058</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36726,19 +36726,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.30023658317216</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>46.45997627616791</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>67.73450699742955</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>71.24101603591527</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>15.78278100826487</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36765,13 +36765,13 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>176.1186111709636</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>60.39990572998547</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0462696263681</v>
+        <v>137.046269626368</v>
       </c>
       <c r="K29" t="n">
         <v>207.5549153019833</v>
@@ -36838,22 +36838,22 @@
         <v>261.8032688511578</v>
       </c>
       <c r="M29" t="n">
-        <v>296.4800117967428</v>
+        <v>296.4800117967432</v>
       </c>
       <c r="N29" t="n">
-        <v>290.9205946132968</v>
+        <v>290.9205946132967</v>
       </c>
       <c r="O29" t="n">
-        <v>249.2914106816557</v>
+        <v>249.2914106816556</v>
       </c>
       <c r="P29" t="n">
-        <v>199.3682333132221</v>
+        <v>199.368233313222</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.3641853094344</v>
+        <v>124.3641853094343</v>
       </c>
       <c r="R29" t="n">
-        <v>18.70965687631597</v>
+        <v>18.70965687631596</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.2738852725166</v>
+        <v>39.27388527251654</v>
       </c>
       <c r="L30" t="n">
-        <v>119.764688815662</v>
+        <v>119.7646888156619</v>
       </c>
       <c r="M30" t="n">
-        <v>184.9664744452321</v>
+        <v>184.966474445232</v>
       </c>
       <c r="N30" t="n">
-        <v>208.4679356963294</v>
+        <v>208.4679356963293</v>
       </c>
       <c r="O30" t="n">
-        <v>134.3972494427106</v>
+        <v>134.3972494427105</v>
       </c>
       <c r="P30" t="n">
-        <v>85.56614463534066</v>
+        <v>85.56614463534058</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36963,13 +36963,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.30023658317222</v>
+        <v>35.30023658317225</v>
       </c>
       <c r="C31" t="n">
-        <v>46.45997627616796</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>67.73450699742961</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -36981,7 +36981,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>47.13555419640317</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>39.8882428477764</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37002,16 +37002,16 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>176.1186111709636</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>15.39604963294811</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.703619513865114</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>137.0462696263681</v>
       </c>
       <c r="K32" t="n">
-        <v>207.5549153019833</v>
+        <v>207.5549153019823</v>
       </c>
       <c r="L32" t="n">
         <v>261.8032688511578</v>
@@ -37090,7 +37090,7 @@
         <v>124.3641853094344</v>
       </c>
       <c r="R32" t="n">
-        <v>18.70965687631597</v>
+        <v>18.709656876316</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.2738852725166</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L33" t="n">
         <v>119.764688815662</v>
@@ -37160,10 +37160,10 @@
         <v>208.4679356963294</v>
       </c>
       <c r="O33" t="n">
-        <v>134.3972494427106</v>
+        <v>134.3972494427105</v>
       </c>
       <c r="P33" t="n">
-        <v>85.56614463534066</v>
+        <v>85.56614463534062</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37200,7 +37200,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>12.19096752476892</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -37212,16 +37212,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>73.99027502969372</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>7.507536900282726</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>48.20893820521677</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -37239,10 +37239,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>176.1186111709636</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>155.0207049709725</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37300,16 +37300,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.497149376212079</v>
+        <v>7.497149376212192</v>
       </c>
       <c r="J35" t="n">
-        <v>172.2223462900928</v>
+        <v>172.2223462900929</v>
       </c>
       <c r="K35" t="n">
-        <v>242.730991965708</v>
+        <v>242.7309919657081</v>
       </c>
       <c r="L35" t="n">
-        <v>296.9793455148825</v>
+        <v>296.9793455148826</v>
       </c>
       <c r="M35" t="n">
         <v>83.56285454860294</v>
@@ -37321,19 +37321,19 @@
         <v>36.37425343351535</v>
       </c>
       <c r="P35" t="n">
-        <v>124.9811802076656</v>
+        <v>225.3619975871611</v>
       </c>
       <c r="Q35" t="n">
-        <v>159.540261973159</v>
+        <v>159.5402619731591</v>
       </c>
       <c r="R35" t="n">
-        <v>53.88573354004065</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.82075889537829</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>25.67432494407807</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37455,7 +37455,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>81.47709510851419</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>84.46131383592964</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -37497,7 +37497,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>2.984218727415225</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.497149376212079</v>
+        <v>7.497149376212192</v>
       </c>
       <c r="J38" t="n">
-        <v>172.2223462900928</v>
+        <v>172.2223462900929</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>242.7309919657081</v>
       </c>
       <c r="L38" t="n">
         <v>48.88611160301748</v>
       </c>
       <c r="M38" t="n">
-        <v>328.8902835902926</v>
+        <v>83.56285454860294</v>
       </c>
       <c r="N38" t="n">
-        <v>326.0966712770215</v>
+        <v>78.00343736515646</v>
       </c>
       <c r="O38" t="n">
-        <v>36.37425343351535</v>
+        <v>174.9043575760975</v>
       </c>
       <c r="P38" t="n">
-        <v>197.0912355671031</v>
+        <v>234.5443099769469</v>
       </c>
       <c r="Q38" t="n">
-        <v>159.540261973159</v>
+        <v>159.5402619731591</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>53.88573354004076</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>20.82075889537841</v>
       </c>
       <c r="T38" t="n">
-        <v>25.67432494407807</v>
+        <v>25.67432494407819</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37674,7 +37674,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>57.12485373349882</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -37686,7 +37686,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>58.28753533230716</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37728,19 +37728,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>24.35224137501537</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>2.984218727415225</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>26.17377850362249</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -37786,19 +37786,19 @@
         <v>289.4821961386704</v>
       </c>
       <c r="M41" t="n">
-        <v>318.1493045097552</v>
+        <v>324.1589390842558</v>
       </c>
       <c r="N41" t="n">
-        <v>318.5995219008093</v>
+        <v>78.00343736515646</v>
       </c>
       <c r="O41" t="n">
         <v>36.37425343351535</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>227.0471606007347</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>25.71646492828351</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37807,7 +37807,7 @@
         <v>13.3236095191662</v>
       </c>
       <c r="T41" t="n">
-        <v>18.17717556786598</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
         <v>104.3646190101172</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,28 +38023,28 @@
         <v>48.88611160301751</v>
       </c>
       <c r="M44" t="n">
-        <v>133.2665316838977</v>
+        <v>324.1589390842559</v>
       </c>
       <c r="N44" t="n">
-        <v>78.00343736515647</v>
+        <v>318.5995219008094</v>
       </c>
       <c r="O44" t="n">
         <v>276.9703379691683</v>
       </c>
       <c r="P44" t="n">
-        <v>227.0471606007347</v>
+        <v>25.49115051253117</v>
       </c>
       <c r="Q44" t="n">
-        <v>152.043112596947</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>46.38858416382856</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>13.3236095191662</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.17717556786598</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38151,13 +38151,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>8.951184725174954</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>95.41343428494221</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>98.91994332342793</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38166,7 +38166,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>5.444675686689235</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
